--- a/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590198406397519</v>
+        <v>2.567322799553438</v>
       </c>
       <c r="C2">
-        <v>0.6479273233219089</v>
+        <v>0.6403844818223092</v>
       </c>
       <c r="D2">
-        <v>0.3344773453419947</v>
+        <v>0.3340049599328268</v>
       </c>
       <c r="E2">
-        <v>1.458982960119698</v>
+        <v>0.2010331850242153</v>
       </c>
       <c r="F2">
-        <v>6.574029785898034</v>
+        <v>6.518123767298022</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,33 +448,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7261000896964802</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9904599414115367</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.207838415520825</v>
+        <v>2.192816826048897</v>
       </c>
       <c r="C3">
-        <v>0.5510599346679896</v>
+        <v>0.5462845433522148</v>
       </c>
       <c r="D3">
-        <v>0.2937554634182078</v>
+        <v>0.2945346180771651</v>
       </c>
       <c r="E3">
-        <v>1.237111862226598</v>
+        <v>0.173946571380398</v>
       </c>
       <c r="F3">
-        <v>5.721414890612976</v>
+        <v>5.688664823310972</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -483,33 +495,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6180521439203588</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8469051482029215</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980496020506536</v>
+        <v>1.969304830060622</v>
       </c>
       <c r="C4">
-        <v>0.4936200238268782</v>
+        <v>0.4901942494326477</v>
       </c>
       <c r="D4">
-        <v>0.2695533610839362</v>
+        <v>0.2709809819066038</v>
       </c>
       <c r="E4">
-        <v>1.106125853166432</v>
+        <v>0.1578073641478497</v>
       </c>
       <c r="F4">
-        <v>5.2139823386633</v>
+        <v>5.193410502040422</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -524,33 +542,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5538508789428178</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.7612921904015337</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.889409610457363</v>
+        <v>1.879585232495145</v>
       </c>
       <c r="C5">
-        <v>0.4706324750654289</v>
+        <v>0.4676879109451022</v>
       </c>
       <c r="D5">
-        <v>0.2598572217358281</v>
+        <v>0.2615254139071226</v>
       </c>
       <c r="E5">
-        <v>1.053828202328006</v>
+        <v>0.1513353218760614</v>
       </c>
       <c r="F5">
-        <v>5.010580822519643</v>
+        <v>4.994570983839765</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -565,33 +589,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5281350756200709</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7269407113842519</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.874370589218898</v>
+        <v>1.864762837467396</v>
       </c>
       <c r="C6">
-        <v>0.4668383063687997</v>
+        <v>0.4639699749491228</v>
       </c>
       <c r="D6">
-        <v>0.2582562996470159</v>
+        <v>0.2599631721227809</v>
       </c>
       <c r="E6">
-        <v>1.045203180118719</v>
+        <v>0.1502664640644369</v>
       </c>
       <c r="F6">
-        <v>4.97699271488878</v>
+        <v>4.961719020888665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -606,33 +636,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5238895350840522</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7212663909488768</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979261669945885</v>
+        <v>1.968089634393436</v>
       </c>
       <c r="C7">
-        <v>0.4933084189196393</v>
+        <v>0.4898893904725696</v>
       </c>
       <c r="D7">
-        <v>0.2694219646754448</v>
+        <v>0.2708529182433779</v>
       </c>
       <c r="E7">
-        <v>1.105416463376173</v>
+        <v>0.157719678898161</v>
       </c>
       <c r="F7">
-        <v>5.211226313251814</v>
+        <v>5.190717493021765</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -647,33 +683,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5535023693865853</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.7608268650671732</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.45661744137368</v>
+        <v>2.436693289732773</v>
       </c>
       <c r="C8">
-        <v>0.6140443638891497</v>
+        <v>0.6075412672167602</v>
       </c>
       <c r="D8">
-        <v>0.3202474162060867</v>
+        <v>0.3202358425853049</v>
       </c>
       <c r="E8">
-        <v>1.381237501165302</v>
+        <v>0.1915794440845247</v>
       </c>
       <c r="F8">
-        <v>6.276283657748451</v>
+        <v>6.228860909848919</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -688,33 +730,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6883413906209199</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.9403729567672841</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.468559522212047</v>
+        <v>3.420220839856427</v>
       </c>
       <c r="C9">
-        <v>0.8720575201978136</v>
+        <v>0.8555642638519032</v>
       </c>
       <c r="D9">
-        <v>0.4281727001385178</v>
+        <v>0.4239881147742324</v>
       </c>
       <c r="E9">
-        <v>1.976993192422142</v>
+        <v>0.2628817578614289</v>
       </c>
       <c r="F9">
-        <v>8.528138435484834</v>
+        <v>8.404953572649703</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -729,33 +777,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9747439177942141</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.31782757895084</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.287975245833479</v>
+        <v>4.205059692867394</v>
       </c>
       <c r="C10">
-        <v>1.08361350916141</v>
+        <v>1.055014523894073</v>
       </c>
       <c r="D10">
-        <v>0.5158130609769955</v>
+        <v>0.5069578932663603</v>
       </c>
       <c r="E10">
-        <v>2.472129846257374</v>
+        <v>0.3199365437949524</v>
       </c>
       <c r="F10">
-        <v>10.34426394714143</v>
+        <v>10.13775005213824</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -770,33 +824,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.20737411569435</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.619540956318701</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.686371107351874</v>
+        <v>4.582235339107342</v>
       </c>
       <c r="C11">
-        <v>1.187454200869354</v>
+        <v>1.15144494785423</v>
       </c>
       <c r="D11">
-        <v>0.5585076088651988</v>
+        <v>0.5468937853425189</v>
       </c>
       <c r="E11">
-        <v>2.717533875335462</v>
+        <v>0.3473894711590475</v>
       </c>
       <c r="F11">
-        <v>11.22445405503589</v>
+        <v>10.96904575498547</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -811,33 +871,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.320746364603224</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.76468148595616</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.841965165293004</v>
+        <v>4.728671303095553</v>
       </c>
       <c r="C12">
-        <v>1.22819655473603</v>
+        <v>1.188992628595145</v>
       </c>
       <c r="D12">
-        <v>0.575196649078265</v>
+        <v>0.5624095337821302</v>
       </c>
       <c r="E12">
-        <v>2.81427366296154</v>
+        <v>0.3580524465232955</v>
       </c>
       <c r="F12">
-        <v>11.56766714808708</v>
+        <v>11.29150870771593</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -852,33 +918,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.365075223394982</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.821055196511324</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.80822479106979</v>
+        <v>4.696960108696999</v>
       </c>
       <c r="C13">
-        <v>1.219352478929977</v>
+        <v>1.18085624532489</v>
       </c>
       <c r="D13">
-        <v>0.5715769647279956</v>
+        <v>0.5590490345163914</v>
       </c>
       <c r="E13">
-        <v>2.793251683630999</v>
+        <v>0.3557431490841907</v>
       </c>
       <c r="F13">
-        <v>11.49326877448709</v>
+        <v>11.22169218015711</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -893,33 +965,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.355460066321186</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.808846170469053</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.699070025843412</v>
+        <v>4.594205740234713</v>
       </c>
       <c r="C14">
-        <v>1.190775399169326</v>
+        <v>1.154511944142797</v>
       </c>
       <c r="D14">
-        <v>0.5598693922879363</v>
+        <v>0.5481618922447069</v>
       </c>
       <c r="E14">
-        <v>2.725410029482646</v>
+        <v>0.3482610275147024</v>
       </c>
       <c r="F14">
-        <v>11.25247744528167</v>
+        <v>10.99541157538698</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -934,33 +1012,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.324363197557446</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.769289258678896</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.632861843776936</v>
+        <v>4.531759480018309</v>
       </c>
       <c r="C15">
-        <v>1.17346748046964</v>
+        <v>1.138516809184665</v>
       </c>
       <c r="D15">
-        <v>0.5527700781982787</v>
+        <v>0.5415469773875827</v>
       </c>
       <c r="E15">
-        <v>2.684383515780638</v>
+        <v>0.343714539721752</v>
       </c>
       <c r="F15">
-        <v>11.10634951643488</v>
+        <v>10.85785663679366</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -975,33 +1059,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.30550828701459</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.74525276076136</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.262537549784668</v>
+        <v>4.180872905401429</v>
       </c>
       <c r="C16">
-        <v>1.077006023983728</v>
+        <v>1.048844255823894</v>
       </c>
       <c r="D16">
-        <v>0.5130888567862826</v>
+        <v>0.5043983521629514</v>
       </c>
       <c r="E16">
-        <v>2.456569226845275</v>
+        <v>0.3181767391638459</v>
       </c>
       <c r="F16">
-        <v>10.28799778903874</v>
+        <v>10.08440813786041</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1016,33 +1106,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.200141487057124</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.610236750044351</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.042575696265772</v>
+        <v>3.971232549630315</v>
       </c>
       <c r="C17">
-        <v>1.019980916030363</v>
+        <v>0.9954286127731677</v>
       </c>
       <c r="D17">
-        <v>0.4895418349746592</v>
+        <v>0.4822204202977787</v>
       </c>
       <c r="E17">
-        <v>2.322538887657601</v>
+        <v>0.3029271787291776</v>
       </c>
       <c r="F17">
-        <v>9.801144767401809</v>
+        <v>9.621900042014744</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1057,33 +1153,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.137630504492904</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.529607979293431</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.918395951757134</v>
+        <v>3.852498704201366</v>
       </c>
       <c r="C18">
-        <v>0.9878729785552878</v>
+        <v>0.9652265979963772</v>
       </c>
       <c r="D18">
-        <v>0.4762557996077135</v>
+        <v>0.4696651045523481</v>
       </c>
       <c r="E18">
-        <v>2.247277866009355</v>
+        <v>0.2942933911938397</v>
       </c>
       <c r="F18">
-        <v>9.526048413651353</v>
+        <v>9.359823249952143</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1098,33 +1200,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.102363249909985</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.483955223041733</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.876724979036339</v>
+        <v>3.812595369342205</v>
       </c>
       <c r="C19">
-        <v>0.9771120820508088</v>
+        <v>0.9550845651533848</v>
       </c>
       <c r="D19">
-        <v>0.4717986168419372</v>
+        <v>0.465446493475639</v>
       </c>
       <c r="E19">
-        <v>2.222086773182909</v>
+        <v>0.2913923378311267</v>
       </c>
       <c r="F19">
-        <v>9.433696197072038</v>
+        <v>9.271726262763082</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1139,33 +1247,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.090532326993028</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.468614657267651</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.065742573090631</v>
+        <v>3.993353459505215</v>
       </c>
       <c r="C20">
-        <v>1.025977716529269</v>
+        <v>1.00105947337309</v>
       </c>
       <c r="D20">
-        <v>0.4920210646006922</v>
+        <v>0.4845600048423648</v>
       </c>
       <c r="E20">
-        <v>2.336611592527873</v>
+        <v>0.3045359667899064</v>
       </c>
       <c r="F20">
-        <v>9.852447405469576</v>
+        <v>9.670716768668484</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1180,33 +1294,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.144211784978566</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.538114432691785</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.73099317077515</v>
+        <v>4.624282777541111</v>
       </c>
       <c r="C21">
-        <v>1.199127523131722</v>
+        <v>1.16221995928322</v>
       </c>
       <c r="D21">
-        <v>0.5632929479216102</v>
+        <v>0.5513483385754512</v>
       </c>
       <c r="E21">
-        <v>2.74522455772356</v>
+        <v>0.3504509858643061</v>
       </c>
       <c r="F21">
-        <v>11.32291476909597</v>
+        <v>11.06165403637146</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1221,33 +1341,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.333456221749827</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.780867217545591</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.194082031717301</v>
+        <v>5.058121945518963</v>
       </c>
       <c r="C22">
-        <v>1.320803185885495</v>
+        <v>1.273699713093976</v>
       </c>
       <c r="D22">
-        <v>0.612994231328031</v>
+        <v>0.5973386248230668</v>
       </c>
       <c r="E22">
-        <v>3.035161333489711</v>
+        <v>0.3820496859465266</v>
       </c>
       <c r="F22">
-        <v>12.34317408652311</v>
+        <v>12.01636887705877</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1262,33 +1388,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.465504181830383</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.947931728769149</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.943898898645784</v>
+        <v>4.82432608709729</v>
       </c>
       <c r="C23">
-        <v>1.254946703495932</v>
+        <v>1.21355348417876</v>
       </c>
       <c r="D23">
-        <v>0.5861344428577127</v>
+        <v>0.5725479696837112</v>
       </c>
       <c r="E23">
-        <v>2.877934112559288</v>
+        <v>0.3650189122133938</v>
       </c>
       <c r="F23">
-        <v>11.7923414459504</v>
+        <v>11.50205841707259</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1303,33 +1435,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.394132278995571</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.857886632907523</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.055261802957716</v>
+        <v>3.983347068327703</v>
       </c>
       <c r="C24">
-        <v>1.023264478899023</v>
+        <v>0.9985121963022436</v>
       </c>
       <c r="D24">
-        <v>0.4908994298398</v>
+        <v>0.4835016766744502</v>
       </c>
       <c r="E24">
-        <v>2.330243796534234</v>
+        <v>0.3038082219706055</v>
       </c>
       <c r="F24">
-        <v>9.829238678127211</v>
+        <v>9.6486349187945</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1344,33 +1482,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.141234319795714</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.534266499223861</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.184006764048434</v>
+        <v>3.145127747360903</v>
       </c>
       <c r="C25">
-        <v>0.7991743735552745</v>
+        <v>0.7860020716545364</v>
       </c>
       <c r="D25">
-        <v>0.397792636099993</v>
+        <v>0.3949464668719145</v>
       </c>
       <c r="E25">
-        <v>1.807827223874796</v>
+        <v>0.2429124213882972</v>
       </c>
       <c r="F25">
-        <v>7.89584400553278</v>
+        <v>7.796754427442323</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8941189839664645</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>1.21217697713243</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567322799553438</v>
+        <v>2.773482813655107</v>
       </c>
       <c r="C2">
-        <v>0.6403844818223092</v>
+        <v>0.3520282134289658</v>
       </c>
       <c r="D2">
-        <v>0.3340049599328268</v>
+        <v>0.03437144978160944</v>
       </c>
       <c r="E2">
-        <v>0.2010331850242153</v>
+        <v>0.04453069292171286</v>
       </c>
       <c r="F2">
-        <v>6.518123767298022</v>
+        <v>0.6460835615063303</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3077215684796357</v>
       </c>
       <c r="M2">
-        <v>0.9904599414115367</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6710878221973573</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.894124826615126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192816826048897</v>
+        <v>2.4095073934987</v>
       </c>
       <c r="C3">
-        <v>0.5462845433522148</v>
+        <v>0.321974753609382</v>
       </c>
       <c r="D3">
-        <v>0.2945346180771651</v>
+        <v>0.03147677953355199</v>
       </c>
       <c r="E3">
-        <v>0.173946571380398</v>
+        <v>0.0437335113844739</v>
       </c>
       <c r="F3">
-        <v>5.688664823310972</v>
+        <v>0.5905085044191907</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2700124778260715</v>
       </c>
       <c r="M3">
-        <v>0.8469051482029215</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.6967298236703314</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.758568346442047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969304830060622</v>
+        <v>2.186837667900022</v>
       </c>
       <c r="C4">
-        <v>0.4901942494326477</v>
+        <v>0.3034851163396297</v>
       </c>
       <c r="D4">
-        <v>0.2709809819066038</v>
+        <v>0.02969398328744433</v>
       </c>
       <c r="E4">
-        <v>0.1578073641478497</v>
+        <v>0.04333515247187414</v>
       </c>
       <c r="F4">
-        <v>5.193410502040422</v>
+        <v>0.5577019622530415</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2471284403529381</v>
       </c>
       <c r="M4">
-        <v>0.7612921904015337</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7135409887608262</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.67967594490608</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.879585232495145</v>
+        <v>2.096262803898128</v>
       </c>
       <c r="C5">
-        <v>0.4676879109451022</v>
+        <v>0.2959395441585855</v>
       </c>
       <c r="D5">
-        <v>0.2615254139071226</v>
+        <v>0.02896600230659985</v>
       </c>
       <c r="E5">
-        <v>0.1513353218760614</v>
+        <v>0.04319473385803185</v>
       </c>
       <c r="F5">
-        <v>4.994570983839765</v>
+        <v>0.5446410868776823</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2378639381149412</v>
       </c>
       <c r="M5">
-        <v>0.7269407113842519</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.720651457343692</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.648546098272078</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.864762837467396</v>
+        <v>2.081231764822974</v>
       </c>
       <c r="C6">
-        <v>0.4639699749491228</v>
+        <v>0.2946859033317111</v>
       </c>
       <c r="D6">
-        <v>0.2599631721227809</v>
+        <v>0.02884502952941403</v>
       </c>
       <c r="E6">
-        <v>0.1502664640644369</v>
+        <v>0.04317271293506231</v>
       </c>
       <c r="F6">
-        <v>4.961719020888665</v>
+        <v>0.5424902932957281</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2363290618110199</v>
       </c>
       <c r="M6">
-        <v>0.7212663909488768</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7218475960721733</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.643436555092933</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968089634393436</v>
+        <v>2.185615526575873</v>
       </c>
       <c r="C7">
-        <v>0.4898893904725696</v>
+        <v>0.3033834003392002</v>
       </c>
       <c r="D7">
-        <v>0.2708529182433779</v>
+        <v>0.02968417159365444</v>
       </c>
       <c r="E7">
-        <v>0.157719678898161</v>
+        <v>0.04333317128067371</v>
       </c>
       <c r="F7">
-        <v>5.190717493021765</v>
+        <v>0.5575246009957127</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.247003258100321</v>
       </c>
       <c r="M7">
-        <v>0.7608268650671732</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7136358420521987</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.679252081362392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.436693289732773</v>
+        <v>2.647790799420363</v>
       </c>
       <c r="C8">
-        <v>0.6075412672167602</v>
+        <v>0.3416723423344479</v>
       </c>
       <c r="D8">
-        <v>0.3202358425853049</v>
+        <v>0.03337443318583411</v>
       </c>
       <c r="E8">
-        <v>0.1915794440845247</v>
+        <v>0.04423629932750472</v>
       </c>
       <c r="F8">
-        <v>6.228860909848919</v>
+        <v>0.626633712302791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.294659294378576</v>
       </c>
       <c r="M8">
-        <v>0.9403729567672841</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6797025016234386</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.846439741830039</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.420220839856427</v>
+        <v>3.562511118721716</v>
       </c>
       <c r="C9">
-        <v>0.8555642638519032</v>
+        <v>0.4165513406686614</v>
       </c>
       <c r="D9">
-        <v>0.4239881147742324</v>
+        <v>0.04057329804185628</v>
       </c>
       <c r="E9">
-        <v>0.2628817578614289</v>
+        <v>0.04677781972103112</v>
       </c>
       <c r="F9">
-        <v>8.404953572649703</v>
+        <v>0.7737138561437575</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3905834355296065</v>
       </c>
       <c r="M9">
-        <v>1.31782757895084</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6220296990007768</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.212183975043246</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.205059692867394</v>
+        <v>4.242643060921637</v>
       </c>
       <c r="C10">
-        <v>1.055014523894073</v>
+        <v>0.4715748218656302</v>
       </c>
       <c r="D10">
-        <v>0.5069578932663603</v>
+        <v>0.04584833982585224</v>
       </c>
       <c r="E10">
-        <v>0.3199365437949524</v>
+        <v>0.04918508461932269</v>
       </c>
       <c r="F10">
-        <v>10.13775005213824</v>
+        <v>0.8904729778065104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4630652759411191</v>
       </c>
       <c r="M10">
-        <v>1.619540956318701</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5856636467682819</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.509143892963124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.582235339107342</v>
+        <v>4.554529275439108</v>
       </c>
       <c r="C11">
-        <v>1.15144494785423</v>
+        <v>0.496642145376768</v>
       </c>
       <c r="D11">
-        <v>0.5468937853425189</v>
+        <v>0.04824732738318716</v>
       </c>
       <c r="E11">
-        <v>0.3473894711590475</v>
+        <v>0.05041423220143137</v>
       </c>
       <c r="F11">
-        <v>10.96904575498547</v>
+        <v>0.9458761617885045</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4965953971617836</v>
       </c>
       <c r="M11">
-        <v>1.76468148595616</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5705675779415813</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.651611422997149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.728671303095553</v>
+        <v>4.673054787976696</v>
       </c>
       <c r="C12">
-        <v>1.188992628595145</v>
+        <v>0.5061427695664236</v>
       </c>
       <c r="D12">
-        <v>0.5624095337821302</v>
+        <v>0.04915586543450701</v>
       </c>
       <c r="E12">
-        <v>0.3580524465232955</v>
+        <v>0.05090046280360205</v>
       </c>
       <c r="F12">
-        <v>11.29150870771593</v>
+        <v>0.9672208598847476</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5093833801807079</v>
       </c>
       <c r="M12">
-        <v>1.821055196511324</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5650722525345557</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.706733208676098</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.696960108696999</v>
+        <v>4.647508418816471</v>
       </c>
       <c r="C13">
-        <v>1.18085624532489</v>
+        <v>0.5040962279307166</v>
       </c>
       <c r="D13">
-        <v>0.5590490345163914</v>
+        <v>0.04896018815397696</v>
       </c>
       <c r="E13">
-        <v>0.3557431490841907</v>
+        <v>0.05079479512404816</v>
       </c>
       <c r="F13">
-        <v>11.22169218015711</v>
+        <v>0.9626070797424973</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5066250397592142</v>
       </c>
       <c r="M13">
-        <v>1.808846170469053</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5662457100541403</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.69480773355707</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.594205740234713</v>
+        <v>4.564271625294907</v>
       </c>
       <c r="C14">
-        <v>1.154511944142797</v>
+        <v>0.4974235862018475</v>
       </c>
       <c r="D14">
-        <v>0.5481618922447069</v>
+        <v>0.04832207033710745</v>
       </c>
       <c r="E14">
-        <v>0.3482610275147024</v>
+        <v>0.05045380925809084</v>
       </c>
       <c r="F14">
-        <v>10.99541157538698</v>
+        <v>0.9476246797002688</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4976455873371748</v>
       </c>
       <c r="M14">
-        <v>1.769289258678896</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5701109616386617</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.656122158867646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.531759480018309</v>
+        <v>4.513343462261957</v>
       </c>
       <c r="C15">
-        <v>1.138516809184665</v>
+        <v>0.493337554815497</v>
       </c>
       <c r="D15">
-        <v>0.5415469773875827</v>
+        <v>0.04793122282838169</v>
       </c>
       <c r="E15">
-        <v>0.343714539721752</v>
+        <v>0.05024769800847828</v>
       </c>
       <c r="F15">
-        <v>10.85785663679366</v>
+        <v>0.9384961274852657</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4921575758585988</v>
       </c>
       <c r="M15">
-        <v>1.74525276076136</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.572507757327358</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.63258226749474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.180872905401429</v>
+        <v>4.222315934669382</v>
       </c>
       <c r="C16">
-        <v>1.048844255823894</v>
+        <v>0.469937594335164</v>
       </c>
       <c r="D16">
-        <v>0.5043983521629514</v>
+        <v>0.04569156278051878</v>
       </c>
       <c r="E16">
-        <v>0.3181767391638459</v>
+        <v>0.04910758052912989</v>
       </c>
       <c r="F16">
-        <v>10.08440813786041</v>
+        <v>0.8869012857309713</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4608861184069042</v>
       </c>
       <c r="M16">
-        <v>1.610236750044351</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5866804299939758</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.499991106776775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.971232549630315</v>
+        <v>4.044460989520758</v>
       </c>
       <c r="C17">
-        <v>0.9954286127731677</v>
+        <v>0.4555938757206945</v>
       </c>
       <c r="D17">
-        <v>0.4822204202977787</v>
+        <v>0.04431756373170259</v>
       </c>
       <c r="E17">
-        <v>0.3029271787291776</v>
+        <v>0.04844352751853442</v>
       </c>
       <c r="F17">
-        <v>9.621900042014744</v>
+        <v>0.8558602085481226</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4418522633773136</v>
       </c>
       <c r="M17">
-        <v>1.529607979293431</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5957545750112629</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.420617145844517</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.852498704201366</v>
+        <v>3.942393915476089</v>
       </c>
       <c r="C18">
-        <v>0.9652265979963772</v>
+        <v>0.447347030308805</v>
       </c>
       <c r="D18">
-        <v>0.4696651045523481</v>
+        <v>0.04352720179263514</v>
       </c>
       <c r="E18">
-        <v>0.2942933911938397</v>
+        <v>0.04807410515021182</v>
       </c>
       <c r="F18">
-        <v>9.359823249952143</v>
+        <v>0.8382193532191451</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4309563074359488</v>
       </c>
       <c r="M18">
-        <v>1.483955223041733</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6011091412940104</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.375650720262342</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.812595369342205</v>
+        <v>3.907873497316928</v>
       </c>
       <c r="C19">
-        <v>0.9550845651533848</v>
+        <v>0.4445552708400555</v>
       </c>
       <c r="D19">
-        <v>0.465446493475639</v>
+        <v>0.04325958069051694</v>
       </c>
       <c r="E19">
-        <v>0.2913923378311267</v>
+        <v>0.04795113203300261</v>
       </c>
       <c r="F19">
-        <v>9.271726262763082</v>
+        <v>0.8322820323367779</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.427275712269136</v>
       </c>
       <c r="M19">
-        <v>1.468614657267651</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6029449684912294</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.360540668022452</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993353459505215</v>
+        <v>4.063369669517215</v>
       </c>
       <c r="C20">
-        <v>1.00105947337309</v>
+        <v>0.4571204294415168</v>
       </c>
       <c r="D20">
-        <v>0.4845600048423648</v>
+        <v>0.04446383463727699</v>
       </c>
       <c r="E20">
-        <v>0.3045359667899064</v>
+        <v>0.04851291045503636</v>
       </c>
       <c r="F20">
-        <v>9.670716768668484</v>
+        <v>0.8591422749523048</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4438730127328654</v>
       </c>
       <c r="M20">
-        <v>1.538114432691785</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.594774515605998</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.428994719914328</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624282777541111</v>
+        <v>4.588708337509559</v>
       </c>
       <c r="C21">
-        <v>1.16221995928322</v>
+        <v>0.4993832567349727</v>
       </c>
       <c r="D21">
-        <v>0.5513483385754512</v>
+        <v>0.04850949687799044</v>
       </c>
       <c r="E21">
-        <v>0.3504509858643061</v>
+        <v>0.0505533886333378</v>
       </c>
       <c r="F21">
-        <v>11.06165403637146</v>
+        <v>0.9520151779875619</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5002805153228564</v>
       </c>
       <c r="M21">
-        <v>1.780867217545591</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5689695297906354</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.667452299061864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.058121945518963</v>
+        <v>4.93453429163975</v>
       </c>
       <c r="C22">
-        <v>1.273699713093976</v>
+        <v>0.527053634473333</v>
       </c>
       <c r="D22">
-        <v>0.5973386248230668</v>
+        <v>0.05115421739854753</v>
       </c>
       <c r="E22">
-        <v>0.3820496859465266</v>
+        <v>0.05200885255591103</v>
       </c>
       <c r="F22">
-        <v>12.01636887705877</v>
+        <v>1.014857410684002</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5376812158443727</v>
       </c>
       <c r="M22">
-        <v>1.947931728769149</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5534007942753476</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.83019013284752</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.82432608709729</v>
+        <v>4.749710784505453</v>
       </c>
       <c r="C23">
-        <v>1.21355348417876</v>
+        <v>0.5122799100019506</v>
       </c>
       <c r="D23">
-        <v>0.5725479696837112</v>
+        <v>0.04974255401567973</v>
       </c>
       <c r="E23">
-        <v>0.3650189122133938</v>
+        <v>0.05122036601448876</v>
       </c>
       <c r="F23">
-        <v>11.50205841707259</v>
+        <v>0.9811086106169569</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5176670478222576</v>
       </c>
       <c r="M23">
-        <v>1.857886632907523</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5615869025859368</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.74266411356453</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.983347068327703</v>
+        <v>4.054820486534538</v>
       </c>
       <c r="C24">
-        <v>0.9985121963022436</v>
+        <v>0.4564302761208978</v>
       </c>
       <c r="D24">
-        <v>0.4835016766744502</v>
+        <v>0.04439770691902822</v>
       </c>
       <c r="E24">
-        <v>0.3038082219706055</v>
+        <v>0.04848150407230811</v>
       </c>
       <c r="F24">
-        <v>9.6486349187945</v>
+        <v>0.8576578166292848</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4429592867827523</v>
       </c>
       <c r="M24">
-        <v>1.534266499223861</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.595217172480389</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.425205150298865</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.145127747360903</v>
+        <v>3.313863088783137</v>
       </c>
       <c r="C25">
-        <v>0.7860020716545364</v>
+        <v>0.396303347388141</v>
       </c>
       <c r="D25">
-        <v>0.3949464668719145</v>
+        <v>0.03862897080012573</v>
       </c>
       <c r="E25">
-        <v>0.2429124213882972</v>
+        <v>0.04600080470204304</v>
       </c>
       <c r="F25">
-        <v>7.796754427442323</v>
+        <v>0.7325237515383662</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3643194180339435</v>
       </c>
       <c r="M25">
-        <v>1.21217697713243</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6366228707312658</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.108674583986783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.773482813655107</v>
+        <v>1.194828579899138</v>
       </c>
       <c r="C2">
-        <v>0.3520282134289658</v>
+        <v>0.2170881049805047</v>
       </c>
       <c r="D2">
-        <v>0.03437144978160944</v>
+        <v>0.02325209133014994</v>
       </c>
       <c r="E2">
-        <v>0.04453069292171286</v>
+        <v>0.09891205464730568</v>
       </c>
       <c r="F2">
-        <v>0.6460835615063303</v>
+        <v>0.7763925801715814</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3077215684796357</v>
+        <v>0.2122146180742703</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6710878221973573</v>
+        <v>1.152311375679417</v>
       </c>
       <c r="O2">
-        <v>1.894124826615126</v>
+        <v>2.661003845049692</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.4095073934987</v>
+        <v>1.090023758153961</v>
       </c>
       <c r="C3">
-        <v>0.321974753609382</v>
+        <v>0.2070080621704307</v>
       </c>
       <c r="D3">
-        <v>0.03147677953355199</v>
+        <v>0.02224389641261837</v>
       </c>
       <c r="E3">
-        <v>0.0437335113844739</v>
+        <v>0.09950659437024001</v>
       </c>
       <c r="F3">
-        <v>0.5905085044191907</v>
+        <v>0.7690441028765207</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2700124778260715</v>
+        <v>0.2029099639223659</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6967298236703314</v>
+        <v>1.163704474325364</v>
       </c>
       <c r="O3">
-        <v>1.758568346442047</v>
+        <v>2.651355265332029</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.186837667900022</v>
+        <v>1.025899365143459</v>
       </c>
       <c r="C4">
-        <v>0.3034851163396297</v>
+        <v>0.2007727506099855</v>
       </c>
       <c r="D4">
-        <v>0.02969398328744433</v>
+        <v>0.0216203145965288</v>
       </c>
       <c r="E4">
-        <v>0.04333515247187414</v>
+        <v>0.09992322555516786</v>
       </c>
       <c r="F4">
-        <v>0.5577019622530415</v>
+        <v>0.7650888328931487</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2471284403529381</v>
+        <v>0.1973047040672782</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7135409887608262</v>
+        <v>1.171190191582248</v>
       </c>
       <c r="O4">
-        <v>1.67967594490608</v>
+        <v>2.647313203222978</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.096262803898128</v>
+        <v>0.9998263544598558</v>
       </c>
       <c r="C5">
-        <v>0.2959395441585855</v>
+        <v>0.1982203687486788</v>
       </c>
       <c r="D5">
-        <v>0.02896600230659985</v>
+        <v>0.02136507372882335</v>
       </c>
       <c r="E5">
-        <v>0.04319473385803185</v>
+        <v>0.1001059769190196</v>
       </c>
       <c r="F5">
-        <v>0.5446410868776823</v>
+        <v>0.7636168359998194</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2378639381149412</v>
+        <v>0.1950476885300958</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.720651457343692</v>
+        <v>1.174364012167331</v>
       </c>
       <c r="O5">
-        <v>1.648546098272078</v>
+        <v>2.646138631301142</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.081231764822974</v>
+        <v>0.9955005050966292</v>
       </c>
       <c r="C6">
-        <v>0.2946859033317111</v>
+        <v>0.197795861250512</v>
       </c>
       <c r="D6">
-        <v>0.02884502952941403</v>
+        <v>0.02132262365556059</v>
       </c>
       <c r="E6">
-        <v>0.04317271293506231</v>
+        <v>0.1001371060546834</v>
       </c>
       <c r="F6">
-        <v>0.5424902932957281</v>
+        <v>0.7633808506751265</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2363290618110199</v>
+        <v>0.1946745557268628</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7218475960721733</v>
+        <v>1.174898472694665</v>
       </c>
       <c r="O6">
-        <v>1.643436555092933</v>
+        <v>2.645972118201001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.185615526575873</v>
+        <v>1.02554749799765</v>
       </c>
       <c r="C7">
-        <v>0.3033834003392002</v>
+        <v>0.2007383744134899</v>
       </c>
       <c r="D7">
-        <v>0.02968417159365444</v>
+        <v>0.02161687686643532</v>
       </c>
       <c r="E7">
-        <v>0.04333317128067371</v>
+        <v>0.09992563768544294</v>
       </c>
       <c r="F7">
-        <v>0.5575246009957127</v>
+        <v>0.765068415199238</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.247003258100321</v>
+        <v>0.1972741550658412</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7136358420521987</v>
+        <v>1.171232495426977</v>
       </c>
       <c r="O7">
-        <v>1.679252081362392</v>
+        <v>2.647295449918374</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.647790799420363</v>
+        <v>1.158645690242452</v>
       </c>
       <c r="C8">
-        <v>0.3416723423344479</v>
+        <v>0.2136221702905345</v>
       </c>
       <c r="D8">
-        <v>0.03337443318583411</v>
+        <v>0.02290541910633337</v>
       </c>
       <c r="E8">
-        <v>0.04423629932750472</v>
+        <v>0.09910634624975501</v>
       </c>
       <c r="F8">
-        <v>0.626633712302791</v>
+        <v>0.7737431608609384</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.294659294378576</v>
+        <v>0.2089840230086111</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6797025016234386</v>
+        <v>1.156137974601954</v>
       </c>
       <c r="O8">
-        <v>1.846439741830039</v>
+        <v>2.65728593382272</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.562511118721716</v>
+        <v>1.421400947532561</v>
       </c>
       <c r="C9">
-        <v>0.4165513406686614</v>
+        <v>0.2385155255674363</v>
       </c>
       <c r="D9">
-        <v>0.04057329804185628</v>
+        <v>0.02539554518414633</v>
       </c>
       <c r="E9">
-        <v>0.04677781972103112</v>
+        <v>0.09790903914421634</v>
       </c>
       <c r="F9">
-        <v>0.7737138561437575</v>
+        <v>0.7951821495015281</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3905834355296065</v>
+        <v>0.2328015675964537</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6220296990007768</v>
+        <v>1.130426422940857</v>
       </c>
       <c r="O9">
-        <v>2.212183975043246</v>
+        <v>2.691848309765248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.242643060921637</v>
+        <v>1.615474074366148</v>
       </c>
       <c r="C10">
-        <v>0.4715748218656302</v>
+        <v>0.2565719894211611</v>
       </c>
       <c r="D10">
-        <v>0.04584833982585224</v>
+        <v>0.02720198638466798</v>
       </c>
       <c r="E10">
-        <v>0.04918508461932269</v>
+        <v>0.0972790544298423</v>
       </c>
       <c r="F10">
-        <v>0.8904729778065104</v>
+        <v>0.8136502656608258</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4630652759411191</v>
+        <v>0.250821888815608</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5856636467682819</v>
+        <v>1.113904723711684</v>
       </c>
       <c r="O10">
-        <v>2.509143892963124</v>
+        <v>2.726426362757053</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.554529275439108</v>
+        <v>1.703978700736741</v>
       </c>
       <c r="C11">
-        <v>0.496642145376768</v>
+        <v>0.2647346361299867</v>
       </c>
       <c r="D11">
-        <v>0.04824732738318716</v>
+        <v>0.0280186437467691</v>
       </c>
       <c r="E11">
-        <v>0.05041423220143137</v>
+        <v>0.09704671115872188</v>
       </c>
       <c r="F11">
-        <v>0.9458761617885045</v>
+        <v>0.8226457974670609</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4965953971617836</v>
+        <v>0.2591333208486049</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5705675779415813</v>
+        <v>1.106902547696478</v>
       </c>
       <c r="O11">
-        <v>2.651611422997149</v>
+        <v>2.744164293284797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.673054787976696</v>
+        <v>1.7375236501166</v>
       </c>
       <c r="C12">
-        <v>0.5061427695664236</v>
+        <v>0.2678181003557825</v>
       </c>
       <c r="D12">
-        <v>0.04915586543450701</v>
+        <v>0.02832714209627341</v>
       </c>
       <c r="E12">
-        <v>0.05090046280360205</v>
+        <v>0.09696653071955375</v>
       </c>
       <c r="F12">
-        <v>0.9672208598847476</v>
+        <v>0.826137886513294</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5093833801807079</v>
+        <v>0.2622969971709921</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5650722525345557</v>
+        <v>1.104324859715156</v>
       </c>
       <c r="O12">
-        <v>2.706733208676098</v>
+        <v>2.751170867853517</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.647508418816471</v>
+        <v>1.730297826171238</v>
       </c>
       <c r="C13">
-        <v>0.5040962279307166</v>
+        <v>0.2671543598127073</v>
       </c>
       <c r="D13">
-        <v>0.04896018815397696</v>
+        <v>0.02826073519808858</v>
       </c>
       <c r="E13">
-        <v>0.05079479512404816</v>
+        <v>0.09698345192268221</v>
       </c>
       <c r="F13">
-        <v>0.9626070797424973</v>
+        <v>0.8253819887171829</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5066250397592142</v>
+        <v>0.2616149181192924</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5662457100541403</v>
+        <v>1.104876724474586</v>
       </c>
       <c r="O13">
-        <v>2.69480773355707</v>
+        <v>2.749648983206214</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564271625294907</v>
+        <v>1.706737867512857</v>
       </c>
       <c r="C14">
-        <v>0.4974235862018475</v>
+        <v>0.2649884669417588</v>
       </c>
       <c r="D14">
-        <v>0.04832207033710745</v>
+        <v>0.02804403926982246</v>
       </c>
       <c r="E14">
-        <v>0.05045380925809084</v>
+        <v>0.09703995826483514</v>
       </c>
       <c r="F14">
-        <v>0.9476246797002688</v>
+        <v>0.8229313754082028</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4976455873371748</v>
+        <v>0.2593932717274043</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5701109616386617</v>
+        <v>1.106688998846295</v>
       </c>
       <c r="O14">
-        <v>2.656122158867646</v>
+        <v>2.744734919531055</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.513343462261957</v>
+        <v>1.692310598760685</v>
       </c>
       <c r="C15">
-        <v>0.493337554815497</v>
+        <v>0.2636608063147889</v>
       </c>
       <c r="D15">
-        <v>0.04793122282838169</v>
+        <v>0.0279112082690034</v>
       </c>
       <c r="E15">
-        <v>0.05024769800847828</v>
+        <v>0.09707558629865787</v>
       </c>
       <c r="F15">
-        <v>0.9384961274852657</v>
+        <v>0.8214414680376763</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4921575758585988</v>
+        <v>0.2580345723623054</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.572507757327358</v>
+        <v>1.107808691947348</v>
       </c>
       <c r="O15">
-        <v>2.63258226749474</v>
+        <v>2.741762653354158</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.222315934669382</v>
+        <v>1.609694388645664</v>
       </c>
       <c r="C16">
-        <v>0.469937594335164</v>
+        <v>0.2560374936823848</v>
       </c>
       <c r="D16">
-        <v>0.04569156278051878</v>
+        <v>0.02714851166640386</v>
       </c>
       <c r="E16">
-        <v>0.04910758052912989</v>
+        <v>0.09729533033493176</v>
       </c>
       <c r="F16">
-        <v>0.8869012857309713</v>
+        <v>0.813074363832925</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4608861184069042</v>
+        <v>0.2502810038860588</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5866804299939758</v>
+        <v>1.114372669913891</v>
       </c>
       <c r="O16">
-        <v>2.499991106776775</v>
+        <v>2.725307628259515</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.044460989520758</v>
+        <v>1.55906728881871</v>
       </c>
       <c r="C17">
-        <v>0.4555938757206945</v>
+        <v>0.2513475691730207</v>
       </c>
       <c r="D17">
-        <v>0.04431756373170259</v>
+        <v>0.02667930216690451</v>
       </c>
       <c r="E17">
-        <v>0.04844352751853442</v>
+        <v>0.09744403065681517</v>
       </c>
       <c r="F17">
-        <v>0.8558602085481226</v>
+        <v>0.8080937843583627</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4418522633773136</v>
+        <v>0.2455535692939037</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5957545750112629</v>
+        <v>1.118531026435583</v>
       </c>
       <c r="O17">
-        <v>2.420617145844517</v>
+        <v>2.715727941592206</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.942393915476089</v>
+        <v>1.529968693121248</v>
       </c>
       <c r="C18">
-        <v>0.447347030308805</v>
+        <v>0.2486452275189777</v>
       </c>
       <c r="D18">
-        <v>0.04352720179263514</v>
+        <v>0.02640894616511247</v>
       </c>
       <c r="E18">
-        <v>0.04807410515021182</v>
+        <v>0.09753466427134683</v>
       </c>
       <c r="F18">
-        <v>0.8382193532191451</v>
+        <v>0.8052850114918186</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4309563074359488</v>
+        <v>0.2428451981714375</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6011091412940104</v>
+        <v>1.120971146377777</v>
       </c>
       <c r="O18">
-        <v>2.375650720262342</v>
+        <v>2.710406931092052</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.907873497316928</v>
+        <v>1.520120020252534</v>
       </c>
       <c r="C19">
-        <v>0.4445552708400555</v>
+        <v>0.2477294382820219</v>
       </c>
       <c r="D19">
-        <v>0.04325958069051694</v>
+        <v>0.02631732654351993</v>
       </c>
       <c r="E19">
-        <v>0.04795113203300261</v>
+        <v>0.09756622796602699</v>
       </c>
       <c r="F19">
-        <v>0.8322820323367779</v>
+        <v>0.8043436077377635</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.427275712269136</v>
+        <v>0.2419300339967805</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6029449684912294</v>
+        <v>1.121805631386245</v>
       </c>
       <c r="O19">
-        <v>2.360540668022452</v>
+        <v>2.708637759217993</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.063369669517215</v>
+        <v>1.564454490506932</v>
       </c>
       <c r="C20">
-        <v>0.4571204294415168</v>
+        <v>0.2518473198576032</v>
       </c>
       <c r="D20">
-        <v>0.04446383463727699</v>
+        <v>0.02672930003986096</v>
       </c>
       <c r="E20">
-        <v>0.04851291045503636</v>
+        <v>0.09742767286929421</v>
       </c>
       <c r="F20">
-        <v>0.8591422749523048</v>
+        <v>0.8086181859662247</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4438730127328654</v>
+        <v>0.2460557033023747</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.594774515605998</v>
+        <v>1.118083358770988</v>
       </c>
       <c r="O20">
-        <v>2.428994719914328</v>
+        <v>2.716728151698049</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.588708337509559</v>
+        <v>1.713657191149025</v>
       </c>
       <c r="C21">
-        <v>0.4993832567349727</v>
+        <v>0.2656248485309902</v>
       </c>
       <c r="D21">
-        <v>0.04850949687799044</v>
+        <v>0.02810770867422718</v>
       </c>
       <c r="E21">
-        <v>0.0505533886333378</v>
+        <v>0.09702314918738786</v>
       </c>
       <c r="F21">
-        <v>0.9520151779875619</v>
+        <v>0.8236488529773851</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5002805153228564</v>
+        <v>0.2600453807628043</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5689695297906354</v>
+        <v>1.10615468451509</v>
       </c>
       <c r="O21">
-        <v>2.667452299061864</v>
+        <v>2.746170432751711</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.93453429163975</v>
+        <v>1.81134496030586</v>
       </c>
       <c r="C22">
-        <v>0.527053634473333</v>
+        <v>0.2745851564137638</v>
       </c>
       <c r="D22">
-        <v>0.05115421739854753</v>
+        <v>0.02900418625712575</v>
       </c>
       <c r="E22">
-        <v>0.05200885255591103</v>
+        <v>0.09680425247724855</v>
       </c>
       <c r="F22">
-        <v>1.014857410684002</v>
+        <v>0.8339717507095372</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5376812158443727</v>
+        <v>0.2692835256877402</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5534007942753476</v>
+        <v>1.098789274595958</v>
       </c>
       <c r="O22">
-        <v>2.83019013284752</v>
+        <v>2.76710108996545</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.749710784505453</v>
+        <v>1.759191604286855</v>
       </c>
       <c r="C23">
-        <v>0.5122799100019506</v>
+        <v>0.2698069635565616</v>
       </c>
       <c r="D23">
-        <v>0.04974255401567973</v>
+        <v>0.02852612725332904</v>
       </c>
       <c r="E23">
-        <v>0.05122036601448876</v>
+        <v>0.09691691899238997</v>
       </c>
       <c r="F23">
-        <v>0.9811086106169569</v>
+        <v>0.8284164510124015</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5176670478222576</v>
+        <v>0.2643442739981481</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5615869025859368</v>
+        <v>1.102680916745456</v>
       </c>
       <c r="O23">
-        <v>2.74266411356453</v>
+        <v>2.755775239953635</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.054820486534538</v>
+        <v>1.562018912846838</v>
       </c>
       <c r="C24">
-        <v>0.4564302761208978</v>
+        <v>0.2516214013804756</v>
       </c>
       <c r="D24">
-        <v>0.04439770691902822</v>
+        <v>0.02670669787294599</v>
       </c>
       <c r="E24">
-        <v>0.04848150407230811</v>
+        <v>0.0974350522029539</v>
       </c>
       <c r="F24">
-        <v>0.8576578166292848</v>
+        <v>0.8083809338498043</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4429592867827523</v>
+        <v>0.2458286589417753</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.595217172480389</v>
+        <v>1.11828559536287</v>
       </c>
       <c r="O24">
-        <v>2.425205150298865</v>
+        <v>2.716275375893275</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.313863088783137</v>
+        <v>1.350135486689737</v>
       </c>
       <c r="C25">
-        <v>0.396303347388141</v>
+        <v>0.2318216392692705</v>
       </c>
       <c r="D25">
-        <v>0.03862897080012573</v>
+        <v>0.02472589985626428</v>
       </c>
       <c r="E25">
-        <v>0.04600080470204304</v>
+        <v>0.0981891070961467</v>
       </c>
       <c r="F25">
-        <v>0.7325237515383662</v>
+        <v>0.7889064867293456</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3643194180339435</v>
+        <v>0.2262667429534702</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6366228707312658</v>
+        <v>1.136965999057317</v>
       </c>
       <c r="O25">
-        <v>2.108674583986783</v>
+        <v>2.680889486086016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.194828579899138</v>
+        <v>2.773482813655164</v>
       </c>
       <c r="C2">
-        <v>0.2170881049805047</v>
+        <v>0.3520282134290795</v>
       </c>
       <c r="D2">
-        <v>0.02325209133014994</v>
+        <v>0.0343714497815526</v>
       </c>
       <c r="E2">
-        <v>0.09891205464730568</v>
+        <v>0.0445306929217093</v>
       </c>
       <c r="F2">
-        <v>0.7763925801715814</v>
+        <v>0.6460835615063232</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2122146180742703</v>
+        <v>0.3077215684795505</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.152311375679417</v>
+        <v>0.6710878221973431</v>
       </c>
       <c r="O2">
-        <v>2.661003845049692</v>
+        <v>1.894124826615126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.090023758153961</v>
+        <v>2.4095073934987</v>
       </c>
       <c r="C3">
-        <v>0.2070080621704307</v>
+        <v>0.3219747536091404</v>
       </c>
       <c r="D3">
-        <v>0.02224389641261837</v>
+        <v>0.03147677953349159</v>
       </c>
       <c r="E3">
-        <v>0.09950659437024001</v>
+        <v>0.04373351138447035</v>
       </c>
       <c r="F3">
-        <v>0.7690441028765207</v>
+        <v>0.5905085044191765</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2029099639223659</v>
+        <v>0.2700124778260431</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.163704474325364</v>
+        <v>0.6967298236703243</v>
       </c>
       <c r="O3">
-        <v>2.651355265332029</v>
+        <v>1.75856834644199</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.025899365143459</v>
+        <v>2.186837667900022</v>
       </c>
       <c r="C4">
-        <v>0.2007727506099855</v>
+        <v>0.3034851163394023</v>
       </c>
       <c r="D4">
-        <v>0.0216203145965288</v>
+        <v>0.02969398328732709</v>
       </c>
       <c r="E4">
-        <v>0.09992322555516786</v>
+        <v>0.04333515247188835</v>
       </c>
       <c r="F4">
-        <v>0.7650888328931487</v>
+        <v>0.5577019622530415</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1973047040672782</v>
+        <v>0.2471284403529808</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.171190191582248</v>
+        <v>0.713540988760812</v>
       </c>
       <c r="O4">
-        <v>2.647313203222978</v>
+        <v>1.67967594490591</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9998263544598558</v>
+        <v>2.096262803898014</v>
       </c>
       <c r="C5">
-        <v>0.1982203687486788</v>
+        <v>0.2959395441588981</v>
       </c>
       <c r="D5">
-        <v>0.02136507372882335</v>
+        <v>0.02896600230672064</v>
       </c>
       <c r="E5">
-        <v>0.1001059769190196</v>
+        <v>0.04319473385803541</v>
       </c>
       <c r="F5">
-        <v>0.7636168359998194</v>
+        <v>0.5446410868776965</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1950476885300958</v>
+        <v>0.237863938114856</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.174364012167331</v>
+        <v>0.7206514573436991</v>
       </c>
       <c r="O5">
-        <v>2.646138631301142</v>
+        <v>1.64854609827205</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9955005050966292</v>
+        <v>2.081231764822917</v>
       </c>
       <c r="C6">
-        <v>0.197795861250512</v>
+        <v>0.2946859033314979</v>
       </c>
       <c r="D6">
-        <v>0.02132262365556059</v>
+        <v>0.02884502952946022</v>
       </c>
       <c r="E6">
-        <v>0.1001371060546834</v>
+        <v>0.04317271293507652</v>
       </c>
       <c r="F6">
-        <v>0.7633808506751265</v>
+        <v>0.5424902932957139</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1946745557268628</v>
+        <v>0.2363290618110909</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.174898472694665</v>
+        <v>0.7218475960721165</v>
       </c>
       <c r="O6">
-        <v>2.645972118201001</v>
+        <v>1.643436555092933</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02554749799765</v>
+        <v>2.185615526576044</v>
       </c>
       <c r="C7">
-        <v>0.2007383744134899</v>
+        <v>0.303383400339186</v>
       </c>
       <c r="D7">
-        <v>0.02161687686643532</v>
+        <v>0.02968417159354075</v>
       </c>
       <c r="E7">
-        <v>0.09992563768544294</v>
+        <v>0.04333317128070036</v>
       </c>
       <c r="F7">
-        <v>0.765068415199238</v>
+        <v>0.5575246009956984</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1972741550658412</v>
+        <v>0.2470032581003352</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.171232495426977</v>
+        <v>0.7136358420521915</v>
       </c>
       <c r="O7">
-        <v>2.647295449918374</v>
+        <v>1.679252081362364</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.158645690242452</v>
+        <v>2.647790799420363</v>
       </c>
       <c r="C8">
-        <v>0.2136221702905345</v>
+        <v>0.3416723423347889</v>
       </c>
       <c r="D8">
-        <v>0.02290541910633337</v>
+        <v>0.03337443318577726</v>
       </c>
       <c r="E8">
-        <v>0.09910634624975501</v>
+        <v>0.04423629932750472</v>
       </c>
       <c r="F8">
-        <v>0.7737431608609384</v>
+        <v>0.626633712302791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2089840230086111</v>
+        <v>0.2946592943784765</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.156137974601954</v>
+        <v>0.6797025016234386</v>
       </c>
       <c r="O8">
-        <v>2.65728593382272</v>
+        <v>1.846439741830039</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.421400947532561</v>
+        <v>3.562511118721716</v>
       </c>
       <c r="C9">
-        <v>0.2385155255674363</v>
+        <v>0.4165513406687751</v>
       </c>
       <c r="D9">
-        <v>0.02539554518414633</v>
+        <v>0.04057329804155785</v>
       </c>
       <c r="E9">
-        <v>0.09790903914421634</v>
+        <v>0.04677781972104356</v>
       </c>
       <c r="F9">
-        <v>0.7951821495015281</v>
+        <v>0.7737138561437433</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2328015675964537</v>
+        <v>0.390583435529706</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.130426422940857</v>
+        <v>0.6220296990007768</v>
       </c>
       <c r="O9">
-        <v>2.691848309765248</v>
+        <v>2.212183975043303</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.615474074366148</v>
+        <v>4.242643060921466</v>
       </c>
       <c r="C10">
-        <v>0.2565719894211611</v>
+        <v>0.4715748218654312</v>
       </c>
       <c r="D10">
-        <v>0.02720198638466798</v>
+        <v>0.04584833982573855</v>
       </c>
       <c r="E10">
-        <v>0.0972790544298423</v>
+        <v>0.04918508461930671</v>
       </c>
       <c r="F10">
-        <v>0.8136502656608258</v>
+        <v>0.8904729778065104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.250821888815608</v>
+        <v>0.4630652759410765</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.113904723711684</v>
+        <v>0.585663646768289</v>
       </c>
       <c r="O10">
-        <v>2.726426362757053</v>
+        <v>2.509143892963124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.703978700736741</v>
+        <v>4.554529275439165</v>
       </c>
       <c r="C11">
-        <v>0.2647346361299867</v>
+        <v>0.4966421453766543</v>
       </c>
       <c r="D11">
-        <v>0.0280186437467691</v>
+        <v>0.04824732738319426</v>
       </c>
       <c r="E11">
-        <v>0.09704671115872188</v>
+        <v>0.05041423220143137</v>
       </c>
       <c r="F11">
-        <v>0.8226457974670609</v>
+        <v>0.9458761617885187</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2591333208486049</v>
+        <v>0.4965953971617836</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.106902547696478</v>
+        <v>0.5705675779415103</v>
       </c>
       <c r="O11">
-        <v>2.744164293284797</v>
+        <v>2.651611422997149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.7375236501166</v>
+        <v>4.673054787976639</v>
       </c>
       <c r="C12">
-        <v>0.2678181003557825</v>
+        <v>0.506142769566452</v>
       </c>
       <c r="D12">
-        <v>0.02832714209627341</v>
+        <v>0.04915586543455674</v>
       </c>
       <c r="E12">
-        <v>0.09696653071955375</v>
+        <v>0.05090046280360028</v>
       </c>
       <c r="F12">
-        <v>0.826137886513294</v>
+        <v>0.9672208598847476</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2622969971709921</v>
+        <v>0.5093833801807364</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.104324859715156</v>
+        <v>0.5650722525346197</v>
       </c>
       <c r="O12">
-        <v>2.751170867853517</v>
+        <v>2.706733208676013</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.730297826171238</v>
+        <v>4.647508418816358</v>
       </c>
       <c r="C13">
-        <v>0.2671543598127073</v>
+        <v>0.5040962279305177</v>
       </c>
       <c r="D13">
-        <v>0.02826073519808858</v>
+        <v>0.04896018815409775</v>
       </c>
       <c r="E13">
-        <v>0.09698345192268221</v>
+        <v>0.05079479512404816</v>
       </c>
       <c r="F13">
-        <v>0.8253819887171829</v>
+        <v>0.9626070797424831</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2616149181192924</v>
+        <v>0.5066250397591858</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.104876724474586</v>
+        <v>0.5662457100541403</v>
       </c>
       <c r="O13">
-        <v>2.749648983206214</v>
+        <v>2.694807733557099</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.706737867512857</v>
+        <v>4.564271625294793</v>
       </c>
       <c r="C14">
-        <v>0.2649884669417588</v>
+        <v>0.4974235862018475</v>
       </c>
       <c r="D14">
-        <v>0.02804403926982246</v>
+        <v>0.0483220703371714</v>
       </c>
       <c r="E14">
-        <v>0.09703995826483514</v>
+        <v>0.05045380925810505</v>
       </c>
       <c r="F14">
-        <v>0.8229313754082028</v>
+        <v>0.9476246797002545</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2593932717274043</v>
+        <v>0.4976455873372743</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.106688998846295</v>
+        <v>0.5701109616387185</v>
       </c>
       <c r="O14">
-        <v>2.744734919531055</v>
+        <v>2.656122158867618</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.692310598760685</v>
+        <v>4.513343462262071</v>
       </c>
       <c r="C15">
-        <v>0.2636608063147889</v>
+        <v>0.4933375548158381</v>
       </c>
       <c r="D15">
-        <v>0.0279112082690034</v>
+        <v>0.04793122282833195</v>
       </c>
       <c r="E15">
-        <v>0.09707558629865787</v>
+        <v>0.05024769800847828</v>
       </c>
       <c r="F15">
-        <v>0.8214414680376763</v>
+        <v>0.9384961274852799</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2580345723623054</v>
+        <v>0.4921575758585846</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.107808691947348</v>
+        <v>0.5725077573272941</v>
       </c>
       <c r="O15">
-        <v>2.741762653354158</v>
+        <v>2.632582267494683</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.609694388645664</v>
+        <v>4.222315934669211</v>
       </c>
       <c r="C16">
-        <v>0.2560374936823848</v>
+        <v>0.469937594335164</v>
       </c>
       <c r="D16">
-        <v>0.02714851166640386</v>
+        <v>0.04569156278051167</v>
       </c>
       <c r="E16">
-        <v>0.09729533033493176</v>
+        <v>0.04910758052909614</v>
       </c>
       <c r="F16">
-        <v>0.813074363832925</v>
+        <v>0.8869012857309713</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2502810038860588</v>
+        <v>0.4608861184068758</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.114372669913891</v>
+        <v>0.5866804299939119</v>
       </c>
       <c r="O16">
-        <v>2.725307628259515</v>
+        <v>2.499991106776775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.55906728881871</v>
+        <v>4.044460989520758</v>
       </c>
       <c r="C17">
-        <v>0.2513475691730207</v>
+        <v>0.4555938757206945</v>
       </c>
       <c r="D17">
-        <v>0.02667930216690451</v>
+        <v>0.04431756373177365</v>
       </c>
       <c r="E17">
-        <v>0.09744403065681517</v>
+        <v>0.0484435275185362</v>
       </c>
       <c r="F17">
-        <v>0.8080937843583627</v>
+        <v>0.8558602085481226</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2455535692939037</v>
+        <v>0.4418522633772852</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.118531026435583</v>
+        <v>0.5957545750112132</v>
       </c>
       <c r="O17">
-        <v>2.715727941592206</v>
+        <v>2.420617145844574</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.529968693121248</v>
+        <v>3.942393915476032</v>
       </c>
       <c r="C18">
-        <v>0.2486452275189777</v>
+        <v>0.4473470303087197</v>
       </c>
       <c r="D18">
-        <v>0.02640894616511247</v>
+        <v>0.04352720179269909</v>
       </c>
       <c r="E18">
-        <v>0.09753466427134683</v>
+        <v>0.04807410515018162</v>
       </c>
       <c r="F18">
-        <v>0.8052850114918186</v>
+        <v>0.8382193532191451</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2428451981714375</v>
+        <v>0.4309563074359204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.120971146377777</v>
+        <v>0.6011091412940317</v>
       </c>
       <c r="O18">
-        <v>2.710406931092052</v>
+        <v>2.375650720262371</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.520120020252534</v>
+        <v>3.907873497317155</v>
       </c>
       <c r="C19">
-        <v>0.2477294382820219</v>
+        <v>0.444555270839686</v>
       </c>
       <c r="D19">
-        <v>0.02631732654351993</v>
+        <v>0.04325958069038904</v>
       </c>
       <c r="E19">
-        <v>0.09756622796602699</v>
+        <v>0.04795113203299728</v>
       </c>
       <c r="F19">
-        <v>0.8043436077377635</v>
+        <v>0.8322820323367779</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2419300339967805</v>
+        <v>0.4272757122691075</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.121805631386245</v>
+        <v>0.602944968491272</v>
       </c>
       <c r="O19">
-        <v>2.708637759217993</v>
+        <v>2.360540668022509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.564454490506932</v>
+        <v>4.063369669517328</v>
       </c>
       <c r="C20">
-        <v>0.2518473198576032</v>
+        <v>0.4571204294414031</v>
       </c>
       <c r="D20">
-        <v>0.02672930003986096</v>
+        <v>0.04446383463726988</v>
       </c>
       <c r="E20">
-        <v>0.09742767286929421</v>
+        <v>0.04851291045500794</v>
       </c>
       <c r="F20">
-        <v>0.8086181859662247</v>
+        <v>0.8591422749523048</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2460557033023747</v>
+        <v>0.4438730127329364</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.118083358770988</v>
+        <v>0.5947745156060549</v>
       </c>
       <c r="O20">
-        <v>2.716728151698049</v>
+        <v>2.428994719914272</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.713657191149025</v>
+        <v>4.588708337509502</v>
       </c>
       <c r="C21">
-        <v>0.2656248485309902</v>
+        <v>0.4993832567352285</v>
       </c>
       <c r="D21">
-        <v>0.02810770867422718</v>
+        <v>0.04850949687799044</v>
       </c>
       <c r="E21">
-        <v>0.09702314918738786</v>
+        <v>0.05055338863333603</v>
       </c>
       <c r="F21">
-        <v>0.8236488529773851</v>
+        <v>0.9520151779875476</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2600453807628043</v>
+        <v>0.5002805153229275</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.10615468451509</v>
+        <v>0.5689695297906283</v>
       </c>
       <c r="O21">
-        <v>2.746170432751711</v>
+        <v>2.667452299061864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.81134496030586</v>
+        <v>4.934534291639693</v>
       </c>
       <c r="C22">
-        <v>0.2745851564137638</v>
+        <v>0.5270536344732477</v>
       </c>
       <c r="D22">
-        <v>0.02900418625712575</v>
+        <v>0.05115421739835568</v>
       </c>
       <c r="E22">
-        <v>0.09680425247724855</v>
+        <v>0.05200885255594301</v>
       </c>
       <c r="F22">
-        <v>0.8339717507095372</v>
+        <v>1.014857410684002</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2692835256877402</v>
+        <v>0.5376812158444153</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.098789274595958</v>
+        <v>0.5534007942752908</v>
       </c>
       <c r="O22">
-        <v>2.76710108996545</v>
+        <v>2.83019013284752</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.759191604286855</v>
+        <v>4.749710784505567</v>
       </c>
       <c r="C23">
-        <v>0.2698069635565616</v>
+        <v>0.5122799100022917</v>
       </c>
       <c r="D23">
-        <v>0.02852612725332904</v>
+        <v>0.04974255401557315</v>
       </c>
       <c r="E23">
-        <v>0.09691691899238997</v>
+        <v>0.0512203660145012</v>
       </c>
       <c r="F23">
-        <v>0.8284164510124015</v>
+        <v>0.9811086106169711</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2643442739981481</v>
+        <v>0.5176670478222007</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.102680916745456</v>
+        <v>0.5615869025859297</v>
       </c>
       <c r="O23">
-        <v>2.755775239953635</v>
+        <v>2.742664113564473</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.562018912846838</v>
+        <v>4.054820486534652</v>
       </c>
       <c r="C24">
-        <v>0.2516214013804756</v>
+        <v>0.4564302761213526</v>
       </c>
       <c r="D24">
-        <v>0.02670669787294599</v>
+        <v>0.04439770691903533</v>
       </c>
       <c r="E24">
-        <v>0.0974350522029539</v>
+        <v>0.04848150407230634</v>
       </c>
       <c r="F24">
-        <v>0.8083809338498043</v>
+        <v>0.8576578166292848</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2458286589417753</v>
+        <v>0.4429592867827949</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.11828559536287</v>
+        <v>0.5952171724803819</v>
       </c>
       <c r="O24">
-        <v>2.716275375893275</v>
+        <v>2.425205150298922</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.350135486689737</v>
+        <v>3.313863088783137</v>
       </c>
       <c r="C25">
-        <v>0.2318216392692705</v>
+        <v>0.3963033473885673</v>
       </c>
       <c r="D25">
-        <v>0.02472589985626428</v>
+        <v>0.0386289708003531</v>
       </c>
       <c r="E25">
-        <v>0.0981891070961467</v>
+        <v>0.04600080470204304</v>
       </c>
       <c r="F25">
-        <v>0.7889064867293456</v>
+        <v>0.7325237515383662</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2262667429534702</v>
+        <v>0.364319418034043</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.136965999057317</v>
+        <v>0.6366228707312587</v>
       </c>
       <c r="O25">
-        <v>2.680889486086016</v>
+        <v>2.108674583986812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.773482813655164</v>
+        <v>2.333718759420719</v>
       </c>
       <c r="C2">
-        <v>0.3520282134290795</v>
+        <v>1.077154277282659</v>
       </c>
       <c r="D2">
-        <v>0.0343714497815526</v>
+        <v>0.06259046127750523</v>
       </c>
       <c r="E2">
-        <v>0.0445306929217093</v>
+        <v>0.2200051999839943</v>
       </c>
       <c r="F2">
-        <v>0.6460835615063232</v>
+        <v>2.55423376254862</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0007147409288137396</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001683550895268393</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.423534911655651</v>
       </c>
       <c r="L2">
-        <v>0.3077215684795505</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6710878221973431</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.894124826615126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.016647983507788</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.4095073934987</v>
+        <v>2.026784465284948</v>
       </c>
       <c r="C3">
-        <v>0.3219747536091404</v>
+        <v>0.9318383895610793</v>
       </c>
       <c r="D3">
-        <v>0.03147677953349159</v>
+        <v>0.05892724789339354</v>
       </c>
       <c r="E3">
-        <v>0.04373351138447035</v>
+        <v>0.1897693684085695</v>
       </c>
       <c r="F3">
-        <v>0.5905085044191765</v>
+        <v>2.274432944123873</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.278621279192208E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005456092441860072</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.290765055516886</v>
       </c>
       <c r="L3">
-        <v>0.2700124778260431</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6967298236703243</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.75856834644199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8829933992237571</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.186837667900022</v>
+        <v>1.838906241683731</v>
       </c>
       <c r="C4">
-        <v>0.3034851163394023</v>
+        <v>0.8437864474012997</v>
       </c>
       <c r="D4">
-        <v>0.02969398328732709</v>
+        <v>0.05659328547300291</v>
       </c>
       <c r="E4">
-        <v>0.04333515247188835</v>
+        <v>0.1714654576050059</v>
       </c>
       <c r="F4">
-        <v>0.5577019622530415</v>
+        <v>2.103323088345547</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.53729226269428E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004390254262163218</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.209098390562204</v>
       </c>
       <c r="L4">
-        <v>0.2471284403529808</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.713540988760812</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.67967594490591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.8013174603779802</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.096262803898014</v>
+        <v>1.762338628701201</v>
       </c>
       <c r="C5">
-        <v>0.2959395441588981</v>
+        <v>0.809008113841486</v>
       </c>
       <c r="D5">
-        <v>0.02896600230672064</v>
+        <v>0.05541489362667917</v>
       </c>
       <c r="E5">
-        <v>0.04319473385803541</v>
+        <v>0.1639982953780752</v>
       </c>
       <c r="F5">
-        <v>0.5446410868776965</v>
+        <v>2.029261644860682</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001033467017079737</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0006007292933993824</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.172397933804845</v>
       </c>
       <c r="L5">
-        <v>0.237863938114856</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7206514573436991</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.64854609827205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7682282261559266</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.081231764822917</v>
+        <v>1.74949161512356</v>
       </c>
       <c r="C6">
-        <v>0.2946859033314979</v>
+        <v>0.8042853558003458</v>
       </c>
       <c r="D6">
-        <v>0.02884502952946022</v>
+        <v>0.05496748002747154</v>
       </c>
       <c r="E6">
-        <v>0.04317271293507652</v>
+        <v>0.1626846431535824</v>
       </c>
       <c r="F6">
-        <v>0.5424902932957139</v>
+        <v>2.011533900425476</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.000122180281195039</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007255969855402</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.162197809218</v>
       </c>
       <c r="L6">
-        <v>0.2363290618110909</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7218475960721165</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.643436555092933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7628805147973736</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.185615526576044</v>
+        <v>1.837486358916493</v>
       </c>
       <c r="C7">
-        <v>0.303383400339186</v>
+        <v>0.8461557644694437</v>
       </c>
       <c r="D7">
-        <v>0.02968417159354075</v>
+        <v>0.05588994136024894</v>
       </c>
       <c r="E7">
-        <v>0.04333317128070036</v>
+        <v>0.1711523649814595</v>
       </c>
       <c r="F7">
-        <v>0.5575246009956984</v>
+        <v>2.087429240887616</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.691801722010112E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006667338872752282</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.197361281190538</v>
       </c>
       <c r="L7">
-        <v>0.2470032581003352</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7136358420521915</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.679252081362364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.8012603018183171</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.647790799420363</v>
+        <v>2.227190225829588</v>
       </c>
       <c r="C8">
-        <v>0.3416723423347889</v>
+        <v>1.030564703238639</v>
       </c>
       <c r="D8">
-        <v>0.03337443318577726</v>
+        <v>0.06042512789524679</v>
       </c>
       <c r="E8">
-        <v>0.04423629932750472</v>
+        <v>0.2092258159019664</v>
       </c>
       <c r="F8">
-        <v>0.626633712302791</v>
+        <v>2.437679369947887</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0003994451880755534</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001410709337887006</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.362753578439339</v>
       </c>
       <c r="L8">
-        <v>0.2946592943784765</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6797025016234386</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.846439741830039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9709855311250664</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.562511118721716</v>
+        <v>2.998704182940514</v>
       </c>
       <c r="C9">
-        <v>0.4165513406687751</v>
+        <v>1.398243769858823</v>
       </c>
       <c r="D9">
-        <v>0.04057329804155785</v>
+        <v>0.06990895360480209</v>
       </c>
       <c r="E9">
-        <v>0.04677781972104356</v>
+        <v>0.2869004265782777</v>
       </c>
       <c r="F9">
-        <v>0.7737138561437433</v>
+        <v>3.159895426506921</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004471710937956175</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007820586915753935</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.707571609902786</v>
       </c>
       <c r="L9">
-        <v>0.390583435529706</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6220296990007768</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.212183975043303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.307175743605157</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.242643060921466</v>
+        <v>3.590388177399234</v>
       </c>
       <c r="C10">
-        <v>0.4715748218654312</v>
+        <v>1.674383250538767</v>
       </c>
       <c r="D10">
-        <v>0.04584833982573855</v>
+        <v>0.07258342203655133</v>
       </c>
       <c r="E10">
-        <v>0.04918508461930671</v>
+        <v>0.3211486166514916</v>
       </c>
       <c r="F10">
-        <v>0.8904729778065104</v>
+        <v>3.613182049744637</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.009709240690908505</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01640268099632536</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.903327766531746</v>
       </c>
       <c r="L10">
-        <v>0.4630652759410765</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.585663646768289</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.509143892963124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.518192280283657</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.554529275439165</v>
+        <v>4.025090780804817</v>
       </c>
       <c r="C11">
-        <v>0.4966421453766543</v>
+        <v>1.762875239121911</v>
       </c>
       <c r="D11">
-        <v>0.04824732738319426</v>
+        <v>0.04736823808931589</v>
       </c>
       <c r="E11">
-        <v>0.05041423220143137</v>
+        <v>0.1665061601540998</v>
       </c>
       <c r="F11">
-        <v>0.9458761617885187</v>
+        <v>3.135412982711841</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02756714804928251</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01935154121559002</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.534591303489847</v>
       </c>
       <c r="L11">
-        <v>0.4965953971617836</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5705675779415103</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.651611422997149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.282180743034814</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.673054787976639</v>
+        <v>4.277114918874986</v>
       </c>
       <c r="C12">
-        <v>0.506142769566452</v>
+        <v>1.774011946916119</v>
       </c>
       <c r="D12">
-        <v>0.04915586543455674</v>
+        <v>0.03370026794954484</v>
       </c>
       <c r="E12">
-        <v>0.05090046280360028</v>
+        <v>0.09344004778190218</v>
       </c>
       <c r="F12">
-        <v>0.9672208598847476</v>
+        <v>2.691894419864497</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06514665088948135</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01964522423783865</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.233510470120848</v>
       </c>
       <c r="L12">
-        <v>0.5093833801807364</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5650722525346197</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.706733208676013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.057974082750263</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.647508418816358</v>
+        <v>4.399467040512945</v>
       </c>
       <c r="C13">
-        <v>0.5040962279305177</v>
+        <v>1.730578722094606</v>
       </c>
       <c r="D13">
-        <v>0.04896018815409775</v>
+        <v>0.02695588193774645</v>
       </c>
       <c r="E13">
-        <v>0.05079479512404816</v>
+        <v>0.0776562089100965</v>
       </c>
       <c r="F13">
-        <v>0.9626070797424831</v>
+        <v>2.227388846573305</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1194353595375048</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01808946303030989</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.950296657250675</v>
       </c>
       <c r="L13">
-        <v>0.5066250397591858</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5662457100541403</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.694807733557099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8324967691419189</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564271625294793</v>
+        <v>4.426379121574826</v>
       </c>
       <c r="C14">
-        <v>0.4974235862018475</v>
+        <v>1.676858351214491</v>
       </c>
       <c r="D14">
-        <v>0.0483220703371714</v>
+        <v>0.02623006619276502</v>
       </c>
       <c r="E14">
-        <v>0.05045380925810505</v>
+        <v>0.100599641740768</v>
       </c>
       <c r="F14">
-        <v>0.9476246797002545</v>
+        <v>1.896704762138953</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1676978442547892</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0163456635206618</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7639117729864822</v>
       </c>
       <c r="L14">
-        <v>0.4976455873372743</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5701109616387185</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.656122158867618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6786652207264865</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.513343462262071</v>
+        <v>4.403476767996892</v>
       </c>
       <c r="C15">
-        <v>0.4933375548158381</v>
+        <v>1.653450284406006</v>
       </c>
       <c r="D15">
-        <v>0.04793122282833195</v>
+        <v>0.02663939240515134</v>
       </c>
       <c r="E15">
-        <v>0.05024769800847828</v>
+        <v>0.1099445223877247</v>
       </c>
       <c r="F15">
-        <v>0.9384961274852799</v>
+        <v>1.804304251210141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.179795999631537</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01562951135981905</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7158577066374789</v>
       </c>
       <c r="L15">
-        <v>0.4921575758585846</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5725077573272941</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.632582267494683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6389137600532138</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.222315934669211</v>
+        <v>4.116724476474474</v>
       </c>
       <c r="C16">
-        <v>0.469937594335164</v>
+        <v>1.545394052214533</v>
       </c>
       <c r="D16">
-        <v>0.04569156278051167</v>
+        <v>0.0270363429060243</v>
       </c>
       <c r="E16">
-        <v>0.04910758052909614</v>
+        <v>0.09987835052784533</v>
       </c>
       <c r="F16">
-        <v>0.8869012857309713</v>
+        <v>1.709434117392703</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1653677809018888</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01214385593276202</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6926548653052578</v>
       </c>
       <c r="L16">
-        <v>0.4608861184068758</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5866804299939119</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.499991106776775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.603129561453791</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.044460989520758</v>
+        <v>3.883505828473915</v>
       </c>
       <c r="C17">
-        <v>0.4555938757206945</v>
+        <v>1.491341031906359</v>
       </c>
       <c r="D17">
-        <v>0.04431756373177365</v>
+        <v>0.02700591749979431</v>
       </c>
       <c r="E17">
-        <v>0.0484435275185362</v>
+        <v>0.07421226944128989</v>
       </c>
       <c r="F17">
-        <v>0.8558602085481226</v>
+        <v>1.806558837263879</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1268527207123071</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01048905887737384</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7688410325362653</v>
       </c>
       <c r="L17">
-        <v>0.4418522633772852</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5957545750112132</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.420617145844574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6540141008065561</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.942393915476032</v>
+        <v>3.672956602233285</v>
       </c>
       <c r="C18">
-        <v>0.4473470303087197</v>
+        <v>1.474582964013052</v>
       </c>
       <c r="D18">
-        <v>0.04352720179269909</v>
+        <v>0.03004390551952829</v>
       </c>
       <c r="E18">
-        <v>0.04807410515018162</v>
+        <v>0.06264003479381808</v>
       </c>
       <c r="F18">
-        <v>0.8382193532191451</v>
+        <v>2.105927214496262</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07409891713876249</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.009801931924297236</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9623988820847202</v>
       </c>
       <c r="L18">
-        <v>0.4309563074359204</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6011091412940317</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.375650720262371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7955677130414216</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.907873497317155</v>
+        <v>3.499348112784105</v>
       </c>
       <c r="C19">
-        <v>0.444555270839686</v>
+        <v>1.494917203280238</v>
       </c>
       <c r="D19">
-        <v>0.04325958069038904</v>
+        <v>0.0401555462991432</v>
       </c>
       <c r="E19">
-        <v>0.04795113203299728</v>
+        <v>0.1089770261031653</v>
       </c>
       <c r="F19">
-        <v>0.8322820323367779</v>
+        <v>2.552613984303207</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02987544140356846</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01044196078936999</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.248637895585489</v>
       </c>
       <c r="L19">
-        <v>0.4272757122691075</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.602944968491272</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.360540668022509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.018112900331275</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.063369669517328</v>
+        <v>3.43357951921746</v>
       </c>
       <c r="C20">
-        <v>0.4571204294414031</v>
+        <v>1.609970309135917</v>
       </c>
       <c r="D20">
-        <v>0.04446383463726988</v>
+        <v>0.06962379043554279</v>
       </c>
       <c r="E20">
-        <v>0.04851291045500794</v>
+        <v>0.3101599805624673</v>
       </c>
       <c r="F20">
-        <v>0.8591422749523048</v>
+        <v>3.442675097595526</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00808339773246125</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01437595803163649</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.813897203377138</v>
       </c>
       <c r="L20">
-        <v>0.4438730127329364</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5947745156060549</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.428994719914272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.462080802595494</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.588708337509502</v>
+        <v>3.863005689848933</v>
       </c>
       <c r="C21">
-        <v>0.4993832567352285</v>
+        <v>1.831771558195612</v>
       </c>
       <c r="D21">
-        <v>0.04850949687799044</v>
+        <v>0.0774698966725893</v>
       </c>
       <c r="E21">
-        <v>0.05055338863333603</v>
+        <v>0.3764142170285822</v>
       </c>
       <c r="F21">
-        <v>0.9520151779875476</v>
+        <v>3.927055084818051</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01347553168787374</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02273522014560747</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.055741310944157</v>
       </c>
       <c r="L21">
-        <v>0.5002805153229275</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5689695297906283</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.667452299061864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.687395382528635</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.934534291639693</v>
+        <v>4.155939247132608</v>
       </c>
       <c r="C22">
-        <v>0.5270536344732477</v>
+        <v>1.973176645251783</v>
       </c>
       <c r="D22">
-        <v>0.05115421739835568</v>
+        <v>0.08168493042839486</v>
       </c>
       <c r="E22">
-        <v>0.05200885255594301</v>
+        <v>0.4080179581371368</v>
       </c>
       <c r="F22">
-        <v>1.014857410684002</v>
+        <v>4.227024659126329</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01751738960174842</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02892954220794586</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.202858824546013</v>
       </c>
       <c r="L22">
-        <v>0.5376812158444153</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5534007942752908</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.83019013284752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.815038672632994</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.749710784505567</v>
+        <v>3.99999362990286</v>
       </c>
       <c r="C23">
-        <v>0.5122799100022917</v>
+        <v>1.893997191431708</v>
       </c>
       <c r="D23">
-        <v>0.04974255401557315</v>
+        <v>0.08027749895963865</v>
       </c>
       <c r="E23">
-        <v>0.0512203660145012</v>
+        <v>0.3913817474189045</v>
       </c>
       <c r="F23">
-        <v>0.9811086106169711</v>
+        <v>4.084825937059918</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01532006475444625</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02533544266800014</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.137953742771657</v>
       </c>
       <c r="L23">
-        <v>0.5176670478222007</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5615869025859297</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.742664113564473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.746340136978105</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.054820486534652</v>
+        <v>3.413179672378419</v>
       </c>
       <c r="C24">
-        <v>0.4564302761213526</v>
+        <v>1.605102849437117</v>
       </c>
       <c r="D24">
-        <v>0.04439770691903533</v>
+        <v>0.07352454425492283</v>
       </c>
       <c r="E24">
-        <v>0.04848150407230634</v>
+        <v>0.3293912510244326</v>
       </c>
       <c r="F24">
-        <v>0.8576578166292848</v>
+        <v>3.524841824027931</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.008242933108875972</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0140922159934318</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.873047221468767</v>
       </c>
       <c r="L24">
-        <v>0.4429592867827949</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5952171724803819</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.425205150298922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.489381928911271</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.313863088783137</v>
+        <v>2.788160281535625</v>
       </c>
       <c r="C25">
-        <v>0.3963033473885673</v>
+        <v>1.302514613888377</v>
       </c>
       <c r="D25">
-        <v>0.0386289708003531</v>
+        <v>0.06614713533507199</v>
       </c>
       <c r="E25">
-        <v>0.04600080470204304</v>
+        <v>0.2651030903544651</v>
       </c>
       <c r="F25">
-        <v>0.7325237515383662</v>
+        <v>2.935703290228844</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002949247294755875</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005762651669892982</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.593379419258767</v>
       </c>
       <c r="L25">
-        <v>0.364319418034043</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6366228707312587</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.108674583986812</v>
+        <v>1.216346979591336</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.333718759420719</v>
+        <v>2.326978953955006</v>
       </c>
       <c r="C2">
-        <v>1.077154277282659</v>
+        <v>1.237378108021232</v>
       </c>
       <c r="D2">
-        <v>0.06259046127750523</v>
+        <v>0.03304917967637877</v>
       </c>
       <c r="E2">
-        <v>0.2200051999839943</v>
+        <v>0.2139361393902348</v>
       </c>
       <c r="F2">
-        <v>2.55423376254862</v>
+        <v>1.798791636626945</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0007147409288137396</v>
+        <v>0.0007885072966411499</v>
       </c>
       <c r="I2">
-        <v>0.001683550895268393</v>
+        <v>0.002090562759399006</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>1.423534911655651</v>
+        <v>0.8675468355124565</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3908484255360278</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.272199049809295</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.016647983507788</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.04094106250848</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.026784465284948</v>
+        <v>2.024558985019667</v>
       </c>
       <c r="C3">
-        <v>0.9318383895610793</v>
+        <v>1.067098468750942</v>
       </c>
       <c r="D3">
-        <v>0.05892724789339354</v>
+        <v>0.03291537803182365</v>
       </c>
       <c r="E3">
-        <v>0.1897693684085695</v>
+        <v>0.186067754076138</v>
       </c>
       <c r="F3">
-        <v>2.274432944123873</v>
+        <v>1.628189496566463</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.278621279192208E-05</v>
+        <v>9.810362079054613E-05</v>
       </c>
       <c r="I3">
-        <v>0.0005456092441860072</v>
+        <v>0.0008645764738433037</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>1.290765055516886</v>
+        <v>0.8116932658214751</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3800473839108278</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2411542722742297</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8829933992237571</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.904161536815387</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.838906241683731</v>
+        <v>1.839035051276966</v>
       </c>
       <c r="C4">
-        <v>0.8437864474012997</v>
+        <v>0.9638371414242215</v>
       </c>
       <c r="D4">
-        <v>0.05659328547300291</v>
+        <v>0.03277746977971319</v>
       </c>
       <c r="E4">
-        <v>0.1714654576050059</v>
+        <v>0.1691122647796881</v>
       </c>
       <c r="F4">
-        <v>2.103323088345547</v>
+        <v>1.523571242907423</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.53729226269428E-05</v>
+        <v>2.545830629419044E-06</v>
       </c>
       <c r="I4">
-        <v>0.0004390254262163218</v>
+        <v>0.0005518285251429056</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>1.209098390562204</v>
+        <v>0.7770332159101088</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.372847645519208</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2229560699779611</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8013174603779802</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8205039151960065</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.762338628701201</v>
+        <v>1.76334934822512</v>
       </c>
       <c r="C5">
-        <v>0.809008113841486</v>
+        <v>0.9227914080672122</v>
       </c>
       <c r="D5">
-        <v>0.05541489362667917</v>
+        <v>0.03262930595015767</v>
       </c>
       <c r="E5">
-        <v>0.1639982953780752</v>
+        <v>0.1621825847948877</v>
       </c>
       <c r="F5">
-        <v>2.029261644860682</v>
+        <v>1.477891222040157</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001033467017079737</v>
+        <v>4.083878311123001E-05</v>
       </c>
       <c r="I5">
-        <v>0.0006007292933993824</v>
+        <v>0.0006052647895709029</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>1.172397933804845</v>
+        <v>0.7607110215970891</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3688939994444596</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2150509889971701</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7682282261559266</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7865729371322132</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.74949161512356</v>
+        <v>1.750662889526069</v>
       </c>
       <c r="C6">
-        <v>0.8042853558003458</v>
+        <v>0.9169076829985841</v>
       </c>
       <c r="D6">
-        <v>0.05496748002747154</v>
+        <v>0.03250936500677426</v>
       </c>
       <c r="E6">
-        <v>0.1626846431535824</v>
+        <v>0.1609709774820551</v>
       </c>
       <c r="F6">
-        <v>2.011533900425476</v>
+        <v>1.466586545082365</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.000122180281195039</v>
+        <v>5.208686421021014E-05</v>
       </c>
       <c r="I6">
-        <v>0.0007255969855402</v>
+        <v>0.0007248068312808442</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>1.162197809218</v>
+        <v>0.7554386926109871</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3671613892923631</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2128991911016058</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7628805147973736</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7810590458688296</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.837486358916493</v>
+        <v>1.837683916683744</v>
       </c>
       <c r="C7">
-        <v>0.8461557644694437</v>
+        <v>0.9657901224016143</v>
       </c>
       <c r="D7">
-        <v>0.05588994136024894</v>
+        <v>0.03252008600243705</v>
       </c>
       <c r="E7">
-        <v>0.1711523649814595</v>
+        <v>0.1688464143413668</v>
       </c>
       <c r="F7">
-        <v>2.087429240887616</v>
+        <v>1.512798320292958</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.691801722010112E-05</v>
+        <v>2.983755785557207E-06</v>
       </c>
       <c r="I7">
-        <v>0.0006667338872752282</v>
+        <v>0.0008169886149236305</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>1.197361281190538</v>
+        <v>0.7698430491127723</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3699212586209697</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2204875467959369</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8012603018183171</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8203652878194205</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.227190225829588</v>
+        <v>2.222192031253428</v>
       </c>
       <c r="C8">
-        <v>1.030564703238639</v>
+        <v>1.181723649987703</v>
       </c>
       <c r="D8">
-        <v>0.06042512789524679</v>
+        <v>0.03269133525641621</v>
       </c>
       <c r="E8">
-        <v>0.2092258159019664</v>
+        <v>0.2040555389388032</v>
       </c>
       <c r="F8">
-        <v>2.437679369947887</v>
+        <v>1.726485529584195</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0003994451880755534</v>
+        <v>0.0004751091317105605</v>
       </c>
       <c r="I8">
-        <v>0.001410709337887006</v>
+        <v>0.001874956026006735</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>1.362753578439339</v>
+        <v>0.8391908031046214</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3836174988041208</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2580460018718185</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9709855311250664</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9941230375477872</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.998704182940514</v>
+        <v>2.979499132282456</v>
       </c>
       <c r="C9">
-        <v>1.398243769858823</v>
+        <v>1.612722061178147</v>
       </c>
       <c r="D9">
-        <v>0.06990895360480209</v>
+        <v>0.03301108015580567</v>
       </c>
       <c r="E9">
-        <v>0.2869004265782777</v>
+        <v>0.2750525438064813</v>
       </c>
       <c r="F9">
-        <v>3.159895426506921</v>
+        <v>2.166583642303777</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.004471710937956175</v>
+        <v>0.004284463820331208</v>
       </c>
       <c r="I9">
-        <v>0.007820586915753935</v>
+        <v>0.007459990876936828</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.707571609902786</v>
+        <v>0.9852651034469915</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4108717353652409</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3434990707002186</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.307175743605157</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.337716639973834</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.590388177399234</v>
+        <v>3.5581669324892</v>
       </c>
       <c r="C10">
-        <v>1.674383250538767</v>
+        <v>1.931618815225022</v>
       </c>
       <c r="D10">
-        <v>0.07258342203655133</v>
+        <v>0.03188718321699646</v>
       </c>
       <c r="E10">
-        <v>0.3211486166514916</v>
+        <v>0.3045213224293519</v>
       </c>
       <c r="F10">
-        <v>3.613182049744637</v>
+        <v>2.440380840602813</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.009709240690908505</v>
+        <v>0.009004639835170636</v>
       </c>
       <c r="I10">
-        <v>0.01640268099632536</v>
+        <v>0.01445823904015953</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.903327766531746</v>
+        <v>1.060041106567866</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4168517022785352</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3987667424827563</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.518192280283657</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.552674287078986</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.025090780804817</v>
+        <v>3.991740507551128</v>
       </c>
       <c r="C11">
-        <v>1.762875239121911</v>
+        <v>2.003077835039221</v>
       </c>
       <c r="D11">
-        <v>0.04736823808931589</v>
+        <v>0.02620029216511277</v>
       </c>
       <c r="E11">
-        <v>0.1665061601540998</v>
+        <v>0.1549837920975037</v>
       </c>
       <c r="F11">
-        <v>3.135412982711841</v>
+        <v>2.139455669794174</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02756714804928251</v>
+        <v>0.02687258032155881</v>
       </c>
       <c r="I11">
-        <v>0.01935154121559002</v>
+        <v>0.01720073480110074</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.534591303489847</v>
+        <v>0.8500074326903047</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3335126744664052</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3267252146684427</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.282180743034814</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.310942195621664</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.277114918874986</v>
+        <v>4.245500390381551</v>
       </c>
       <c r="C12">
-        <v>1.774011946916119</v>
+        <v>1.990837774608337</v>
       </c>
       <c r="D12">
-        <v>0.03370026794954484</v>
+        <v>0.02632693097167405</v>
       </c>
       <c r="E12">
-        <v>0.09344004778190218</v>
+        <v>0.08627701338354488</v>
       </c>
       <c r="F12">
-        <v>2.691894419864497</v>
+        <v>1.86073277063683</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06514665088948135</v>
+        <v>0.06454296214999999</v>
       </c>
       <c r="I12">
-        <v>0.01964522423783865</v>
+        <v>0.01758893611815004</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.233510470120848</v>
+        <v>0.6856909958432382</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2732884708581764</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2643563277253804</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.057974082750263</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.0815938427899</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.399467040512945</v>
+        <v>4.372078778124433</v>
       </c>
       <c r="C13">
-        <v>1.730578722094606</v>
+        <v>1.917463317393981</v>
       </c>
       <c r="D13">
-        <v>0.02695588193774645</v>
+        <v>0.03028814157497806</v>
       </c>
       <c r="E13">
-        <v>0.0776562089100965</v>
+        <v>0.07446797031442465</v>
       </c>
       <c r="F13">
-        <v>2.227388846573305</v>
+        <v>1.567242723533411</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1194353595375048</v>
+        <v>0.118981035758182</v>
       </c>
       <c r="I13">
-        <v>0.01808946303030989</v>
+        <v>0.01644955446712881</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.950296657250675</v>
+        <v>0.5358051568080455</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.221989925542978</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2025919955692217</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8324967691419189</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8509812134850208</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.426379121574826</v>
+        <v>4.402963816888018</v>
       </c>
       <c r="C14">
-        <v>1.676858351214491</v>
+        <v>1.839865849706428</v>
       </c>
       <c r="D14">
-        <v>0.02623006619276502</v>
+        <v>0.03525121872525361</v>
       </c>
       <c r="E14">
-        <v>0.100599641740768</v>
+        <v>0.09981968495769067</v>
       </c>
       <c r="F14">
-        <v>1.896704762138953</v>
+        <v>1.356557169109863</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1676978442547892</v>
+        <v>0.167358722203204</v>
       </c>
       <c r="I14">
-        <v>0.0163456635206618</v>
+        <v>0.0151175637795502</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.7639117729864822</v>
+        <v>0.4387677546581088</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1900331477826995</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1607687737559971</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6786652207264865</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6936054364501487</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.403476767996892</v>
+        <v>4.381568643890432</v>
       </c>
       <c r="C15">
-        <v>1.653450284406006</v>
+        <v>1.809200460231352</v>
       </c>
       <c r="D15">
-        <v>0.02663939240515134</v>
+        <v>0.03677386457869858</v>
       </c>
       <c r="E15">
-        <v>0.1099445223877247</v>
+        <v>0.1097591859124627</v>
       </c>
       <c r="F15">
-        <v>1.804304251210141</v>
+        <v>1.297356976197477</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.179795999631537</v>
+        <v>0.1794986496810509</v>
       </c>
       <c r="I15">
-        <v>0.01562951135981905</v>
+        <v>0.01458769449608965</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.7158577066374789</v>
+        <v>0.4143957396954718</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1824690104626079</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1495344636999967</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6389137600532138</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6529210528246878</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.116724476474474</v>
+        <v>4.099676886898521</v>
       </c>
       <c r="C16">
-        <v>1.545394052214533</v>
+        <v>1.689385842233378</v>
       </c>
       <c r="D16">
-        <v>0.0270363429060243</v>
+        <v>0.03585772244698404</v>
       </c>
       <c r="E16">
-        <v>0.09987835052784533</v>
+        <v>0.1004107121933338</v>
       </c>
       <c r="F16">
-        <v>1.709434117392703</v>
+        <v>1.238338764528265</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1653677809018888</v>
+        <v>0.1652142357314119</v>
       </c>
       <c r="I16">
-        <v>0.01214385593276202</v>
+        <v>0.01172952115763426</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.6926548653052578</v>
+        <v>0.4104245356158387</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1858876637835252</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.140608072176164</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.603129561453791</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6163922662702745</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.883505828473915</v>
+        <v>3.868034133267429</v>
       </c>
       <c r="C17">
-        <v>1.491341031906359</v>
+        <v>1.638888704187139</v>
       </c>
       <c r="D17">
-        <v>0.02700591749979431</v>
+        <v>0.03225903483079051</v>
       </c>
       <c r="E17">
-        <v>0.07421226944128989</v>
+        <v>0.07418629717844993</v>
       </c>
       <c r="F17">
-        <v>1.806558837263879</v>
+        <v>1.302478840657955</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1268527207123071</v>
+        <v>0.1267508354360984</v>
       </c>
       <c r="I17">
-        <v>0.01048905887737384</v>
+        <v>0.01033372659160925</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.7688410325362653</v>
+        <v>0.4570120069402606</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2055681932975695</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1545568273037219</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6540141008065561</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.668548557378891</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.672956602233285</v>
+        <v>3.656511534118351</v>
       </c>
       <c r="C18">
-        <v>1.474582964013052</v>
+        <v>1.639503901218688</v>
       </c>
       <c r="D18">
-        <v>0.03004390551952829</v>
+        <v>0.02785652573968633</v>
       </c>
       <c r="E18">
-        <v>0.06264003479381808</v>
+        <v>0.06052358161720117</v>
       </c>
       <c r="F18">
-        <v>2.105927214496262</v>
+        <v>1.495719473626309</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07409891713876249</v>
+        <v>0.07399016299685002</v>
       </c>
       <c r="I18">
-        <v>0.009801931924297236</v>
+        <v>0.009616610948436133</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.9623988820847202</v>
+        <v>0.5654543063891779</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2467390169970116</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1941806130442671</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7955677130414216</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8135751551386861</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.499348112784105</v>
+        <v>3.480010986312664</v>
       </c>
       <c r="C19">
-        <v>1.494917203280238</v>
+        <v>1.686425764583703</v>
       </c>
       <c r="D19">
-        <v>0.0401555462991432</v>
+        <v>0.02632051464288221</v>
       </c>
       <c r="E19">
-        <v>0.1089770261031653</v>
+        <v>0.1030142023907246</v>
       </c>
       <c r="F19">
-        <v>2.552613984303207</v>
+        <v>1.779366341990851</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02987544140356846</v>
+        <v>0.02969782556773737</v>
       </c>
       <c r="I19">
-        <v>0.01044196078936999</v>
+        <v>0.01009553886607772</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>1.248637895585489</v>
+        <v>0.7211323683938531</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3040938498438237</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.253692268487832</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.018112900331275</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.04137826166383</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.43357951921746</v>
+        <v>3.405377965539572</v>
       </c>
       <c r="C20">
-        <v>1.609970309135917</v>
+        <v>1.854779351985769</v>
       </c>
       <c r="D20">
-        <v>0.06962379043554279</v>
+        <v>0.03151139773056855</v>
       </c>
       <c r="E20">
-        <v>0.3101599805624673</v>
+        <v>0.2950525087153579</v>
       </c>
       <c r="F20">
-        <v>3.442675097595526</v>
+        <v>2.334650312063886</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.00808339773246125</v>
+        <v>0.007552542450222965</v>
       </c>
       <c r="I20">
-        <v>0.01437595803163649</v>
+        <v>0.01312576298345025</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.813897203377138</v>
+        <v>1.018136139218967</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4073434517453549</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3752286116849035</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.462080802595494</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.495320778040579</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.863005689848933</v>
+        <v>3.822500879555207</v>
       </c>
       <c r="C21">
-        <v>1.831771558195612</v>
+        <v>2.116097774805098</v>
       </c>
       <c r="D21">
-        <v>0.0774698966725893</v>
+        <v>0.03220550545527701</v>
       </c>
       <c r="E21">
-        <v>0.3764142170285822</v>
+        <v>0.3558769929833332</v>
       </c>
       <c r="F21">
-        <v>3.927055084818051</v>
+        <v>2.629607593953153</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01347553168787374</v>
+        <v>0.01234716593887786</v>
       </c>
       <c r="I21">
-        <v>0.02273522014560747</v>
+        <v>0.01970466824290007</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>2.055741310944157</v>
+        <v>1.124555553715936</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4289447000671913</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4385441477679208</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.687395382528635</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.724810122459346</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.155939247132608</v>
+        <v>4.106617992212648</v>
       </c>
       <c r="C22">
-        <v>1.973176645251783</v>
+        <v>2.281701230429576</v>
       </c>
       <c r="D22">
-        <v>0.08168493042839486</v>
+        <v>0.03239322801785249</v>
       </c>
       <c r="E22">
-        <v>0.4080179581371368</v>
+        <v>0.3840694310472372</v>
       </c>
       <c r="F22">
-        <v>4.227024659126329</v>
+        <v>2.812461913340286</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01751738960174842</v>
+        <v>0.0159096361761828</v>
       </c>
       <c r="I22">
-        <v>0.02892954220794586</v>
+        <v>0.02438844221815373</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.202858824546013</v>
+        <v>1.188625454340951</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4404375155698261</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4790108034426837</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.815038672632994</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.854633916710895</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.99999362990286</v>
+        <v>3.955327699184011</v>
       </c>
       <c r="C23">
-        <v>1.893997191431708</v>
+        <v>2.18997713963148</v>
       </c>
       <c r="D23">
-        <v>0.08027749895963865</v>
+        <v>0.03254390210522473</v>
       </c>
       <c r="E23">
-        <v>0.3913817474189045</v>
+        <v>0.3692030094511409</v>
       </c>
       <c r="F23">
-        <v>4.084825937059918</v>
+        <v>2.726628105721176</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01532006475444625</v>
+        <v>0.01397225142775871</v>
       </c>
       <c r="I23">
-        <v>0.02533544266800014</v>
+        <v>0.02154692991918239</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>2.137953742771657</v>
+        <v>1.162404095621682</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4371457674602439</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4605207630696029</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.746340136978105</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.784870526205424</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.413179672378419</v>
+        <v>3.384498309899186</v>
       </c>
       <c r="C24">
-        <v>1.605102849437117</v>
+        <v>1.853106222762165</v>
       </c>
       <c r="D24">
-        <v>0.07352454425492283</v>
+        <v>0.03263177414986984</v>
       </c>
       <c r="E24">
-        <v>0.3293912510244326</v>
+        <v>0.313557559126032</v>
       </c>
       <c r="F24">
-        <v>3.524841824027931</v>
+        <v>2.386831311486162</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.008242933108875972</v>
+        <v>0.007687315295192787</v>
       </c>
       <c r="I24">
-        <v>0.0140922159934318</v>
+        <v>0.01269265444650625</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.873047221468767</v>
+        <v>1.051269228829682</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4195622246524024</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3878933500494242</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.489381928911271</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.523376962882836</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.788160281535625</v>
+        <v>2.773458251375359</v>
       </c>
       <c r="C25">
-        <v>1.302514613888377</v>
+        <v>1.499184192285782</v>
       </c>
       <c r="D25">
-        <v>0.06614713533507199</v>
+        <v>0.03256106558696992</v>
       </c>
       <c r="E25">
-        <v>0.2651030903544651</v>
+        <v>0.2552804213792967</v>
       </c>
       <c r="F25">
-        <v>2.935703290228844</v>
+        <v>2.028622085385607</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.002949247294755875</v>
+        <v>0.002893793714009441</v>
       </c>
       <c r="I25">
-        <v>0.005762651669892982</v>
+        <v>0.005889896771007486</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.593379419258767</v>
+        <v>0.9335036194461068</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3993038586278956</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3148600174240386</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.216346979591336</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.244845979635002</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
